--- a/data/nzd0163/nzd0163.xlsx
+++ b/data/nzd0163/nzd0163.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K392"/>
+  <dimension ref="A1:K395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14609,6 +14609,115 @@
       <c r="K392" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="n">
+        <v>371.4341176470588</v>
+      </c>
+      <c r="C393" t="n">
+        <v>366.7041176470589</v>
+      </c>
+      <c r="D393" t="n">
+        <v>378.17</v>
+      </c>
+      <c r="E393" t="n">
+        <v>376.58</v>
+      </c>
+      <c r="F393" t="n">
+        <v>395.5027272727273</v>
+      </c>
+      <c r="G393" t="inlineStr"/>
+      <c r="H393" t="inlineStr"/>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="n">
+        <v>366.2564705882353</v>
+      </c>
+      <c r="C394" t="n">
+        <v>373.1264705882353</v>
+      </c>
+      <c r="D394" t="n">
+        <v>375.3187096774193</v>
+      </c>
+      <c r="E394" t="n">
+        <v>376.54</v>
+      </c>
+      <c r="F394" t="n">
+        <v>392.29</v>
+      </c>
+      <c r="G394" t="n">
+        <v>387.77</v>
+      </c>
+      <c r="H394" t="n">
+        <v>383.4388888888889</v>
+      </c>
+      <c r="I394" t="n">
+        <v>380.1244827586207</v>
+      </c>
+      <c r="J394" t="n">
+        <v>391.26</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="n">
+        <v>365.5223529411765</v>
+      </c>
+      <c r="C395" t="n">
+        <v>367.0023529411765</v>
+      </c>
+      <c r="D395" t="n">
+        <v>377.0883870967742</v>
+      </c>
+      <c r="E395" t="n">
+        <v>370.94</v>
+      </c>
+      <c r="F395" t="n">
+        <v>374.8445454545454</v>
+      </c>
+      <c r="G395" t="n">
+        <v>376.875</v>
+      </c>
+      <c r="H395" t="n">
+        <v>376.1233333333333</v>
+      </c>
+      <c r="I395" t="n">
+        <v>375.5713793103448</v>
+      </c>
+      <c r="J395" t="n">
+        <v>380.69</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -14623,7 +14732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B410"/>
+  <dimension ref="A1:B413"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18731,6 +18840,36 @@
       </c>
       <c r="B410" t="n">
         <v>-0.86</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B411" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B412" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B413" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -18893,28 +19032,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.02193746317994913</v>
+        <v>-0.01206647790456794</v>
       </c>
       <c r="J2" t="n">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K2" t="n">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003405391806925451</v>
+        <v>0.0001044701199984788</v>
       </c>
       <c r="M2" t="n">
-        <v>6.300408309413241</v>
+        <v>6.290944789726195</v>
       </c>
       <c r="N2" t="n">
-        <v>71.54413221882034</v>
+        <v>71.21934542601399</v>
       </c>
       <c r="O2" t="n">
-        <v>8.458376452890965</v>
+        <v>8.4391554924657</v>
       </c>
       <c r="P2" t="n">
-        <v>362.7989083166099</v>
+        <v>362.6996366794921</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -18970,28 +19109,28 @@
         <v>0.0919</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.05091041004313373</v>
+        <v>-0.04976042384571358</v>
       </c>
       <c r="J3" t="n">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K3" t="n">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003008483522945804</v>
+        <v>0.002921192660331418</v>
       </c>
       <c r="M3" t="n">
-        <v>4.70467839778278</v>
+        <v>4.685710286339652</v>
       </c>
       <c r="N3" t="n">
-        <v>44.88249728820443</v>
+        <v>44.56761822349984</v>
       </c>
       <c r="O3" t="n">
-        <v>6.699440072737753</v>
+        <v>6.675898308355201</v>
       </c>
       <c r="P3" t="n">
-        <v>369.5551101248612</v>
+        <v>369.5438911694993</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -19047,28 +19186,28 @@
         <v>0.1742</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01554183876370454</v>
+        <v>-0.01719809328133497</v>
       </c>
       <c r="J4" t="n">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K4" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003756444159015437</v>
+        <v>0.0004684839674495844</v>
       </c>
       <c r="M4" t="n">
-        <v>4.414411069994046</v>
+        <v>4.3850862499788</v>
       </c>
       <c r="N4" t="n">
-        <v>33.60946321446647</v>
+        <v>33.32220921765461</v>
       </c>
       <c r="O4" t="n">
-        <v>5.797366920806933</v>
+        <v>5.77253923483025</v>
       </c>
       <c r="P4" t="n">
-        <v>378.1700133060382</v>
+        <v>378.1861090781462</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -19124,28 +19263,28 @@
         <v>0.1393</v>
       </c>
       <c r="I5" t="n">
-        <v>-8.330381085706323e-06</v>
+        <v>0.004827615535292897</v>
       </c>
       <c r="J5" t="n">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K5" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L5" t="n">
-        <v>5.528899560403033e-11</v>
+        <v>1.890036620888491e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>5.439492432412811</v>
+        <v>5.416934186956604</v>
       </c>
       <c r="N5" t="n">
-        <v>62.56096218731028</v>
+        <v>62.11266373300057</v>
       </c>
       <c r="O5" t="n">
-        <v>7.909548797959987</v>
+        <v>7.88115878110577</v>
       </c>
       <c r="P5" t="n">
-        <v>372.0949229337403</v>
+        <v>372.0468033819312</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -19201,28 +19340,28 @@
         <v>0.0564</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.02653839772432354</v>
+        <v>-0.01479386483161678</v>
       </c>
       <c r="J6" t="n">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K6" t="n">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004599314913455999</v>
+        <v>0.0001434939193082352</v>
       </c>
       <c r="M6" t="n">
-        <v>6.612544616694309</v>
+        <v>6.647936049595887</v>
       </c>
       <c r="N6" t="n">
-        <v>77.93354699580877</v>
+        <v>78.36941641995786</v>
       </c>
       <c r="O6" t="n">
-        <v>8.827997904157474</v>
+        <v>8.852650248369573</v>
       </c>
       <c r="P6" t="n">
-        <v>381.3421591555964</v>
+        <v>381.2259763229392</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -19278,28 +19417,28 @@
         <v>0.0829</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0203806934055306</v>
+        <v>-0.01854191312227096</v>
       </c>
       <c r="J7" t="n">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K7" t="n">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000558546173376695</v>
+        <v>0.0004660081413331296</v>
       </c>
       <c r="M7" t="n">
-        <v>4.634812432147863</v>
+        <v>4.639113283434185</v>
       </c>
       <c r="N7" t="n">
-        <v>38.5133715784339</v>
+        <v>38.47559909294458</v>
       </c>
       <c r="O7" t="n">
-        <v>6.205914241949682</v>
+        <v>6.202870230219601</v>
       </c>
       <c r="P7" t="n">
-        <v>381.2703839134035</v>
+        <v>381.2527007002667</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -19355,28 +19494,28 @@
         <v>0.0953</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02136021797471825</v>
+        <v>0.02027189259543697</v>
       </c>
       <c r="J8" t="n">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K8" t="n">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0006873323138132381</v>
+        <v>0.0006259676643518564</v>
       </c>
       <c r="M8" t="n">
-        <v>4.549294175995099</v>
+        <v>4.543875058732737</v>
       </c>
       <c r="N8" t="n">
-        <v>35.02844838500802</v>
+        <v>34.89932782926477</v>
       </c>
       <c r="O8" t="n">
-        <v>5.918483622095107</v>
+        <v>5.907565304697425</v>
       </c>
       <c r="P8" t="n">
-        <v>380.1025623516046</v>
+        <v>380.1130247100398</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
@@ -19432,28 +19571,28 @@
         <v>0.1606</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06512172521092409</v>
+        <v>0.0629303919264716</v>
       </c>
       <c r="J9" t="n">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K9" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007244115363983061</v>
+        <v>0.006848009497916863</v>
       </c>
       <c r="M9" t="n">
-        <v>4.066294670766465</v>
+        <v>4.054339272228202</v>
       </c>
       <c r="N9" t="n">
-        <v>30.77900964903706</v>
+        <v>30.64024710198367</v>
       </c>
       <c r="O9" t="n">
-        <v>5.547883348542673</v>
+        <v>5.535363321588175</v>
       </c>
       <c r="P9" t="n">
-        <v>377.9654896300295</v>
+        <v>377.9863692931912</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
@@ -19509,28 +19648,28 @@
         <v>0.1069</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.01579539386553701</v>
+        <v>-0.01493074437944434</v>
       </c>
       <c r="J10" t="n">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="K10" t="n">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003538108353027258</v>
+        <v>0.0003189625514097294</v>
       </c>
       <c r="M10" t="n">
-        <v>4.626188588805452</v>
+        <v>4.630625980769856</v>
       </c>
       <c r="N10" t="n">
-        <v>36.61837620508682</v>
+        <v>36.56670415709362</v>
       </c>
       <c r="O10" t="n">
-        <v>6.051311940818025</v>
+        <v>6.047040942237254</v>
       </c>
       <c r="P10" t="n">
-        <v>385.6747065688008</v>
+        <v>385.6664948885033</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
@@ -19567,7 +19706,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K392"/>
+  <dimension ref="A1:K395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39659,6 +39798,161 @@
         </is>
       </c>
     </row>
+    <row r="393">
+      <c r="A393" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:06:04+00:00</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>-36.74562911034237,175.16868623809287</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>-36.74633204133555,175.16869541190246</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>-36.74700966012357,175.16897174516387</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>-36.74767670804263,175.16917559674246</t>
+        </is>
+      </c>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>-36.74827714591097,175.169585786883</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr"/>
+      <c r="H393" t="inlineStr"/>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>-36.74563312137258,175.16862848069619</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>-36.74632415236617,175.16876664975626</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>-36.7470155231653,175.16894066224805</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>-36.747676805271965,175.16917516547076</t>
+        </is>
+      </c>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>-36.74828872706992,175.16955281812295</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>-36.74888150832022,175.16993595026145</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>-36.7494613495017,175.1704135177325</t>
+        </is>
+      </c>
+      <c r="I394" t="inlineStr">
+        <is>
+          <t>-36.749984705225884,175.1709998927779</t>
+        </is>
+      </c>
+      <c r="J394" t="inlineStr">
+        <is>
+          <t>-36.75041189499217,175.1717275591953</t>
+        </is>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>-36.74563369007809,175.1686202915078</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>-36.74633167499581,175.16869871998048</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>-36.74701188421987,175.16895995412287</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>-36.74769041736442,175.16911478742296</t>
+        </is>
+      </c>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>-36.74835161385401,175.16937379403103</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>-36.74893715050917,175.16983544546196</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>-36.749504864367104,175.17035198894177</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>-36.75001415520262,175.17096439810962</t>
+        </is>
+      </c>
+      <c r="J395" t="inlineStr">
+        <is>
+          <t>-36.75048111203333,175.17164626018413</t>
+        </is>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0163/nzd0163.xlsx
+++ b/data/nzd0163/nzd0163.xlsx
@@ -18883,7 +18883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W10"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18974,35 +18974,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -19055,27 +19060,28 @@
       <c r="P2" t="n">
         <v>362.6996366794921</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (175.1645428183145 -36.74591678298516, 175.17481514398295 -36.745203319993514)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>175.1645428183145</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.74591678298516</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>175.174815143983</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.74520331999351</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>175.1696789811487</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.74556005148933</v>
       </c>
     </row>
@@ -19132,27 +19138,28 @@
       <c r="P3" t="n">
         <v>369.5438911694993</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (175.1646278384432 -36.74678241643596, 175.17484197375498 -36.745651201228185)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>175.1646278384432</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.74678241643596</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>175.174841973755</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.74565120122818</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>175.1697349060991</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.74621680883207</v>
       </c>
     </row>
@@ -19209,27 +19216,28 @@
       <c r="P4" t="n">
         <v>378.1861090781462</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (175.16484913664593 -36.74778721263662, 175.1748870206051 -36.74589372341795)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>175.1648491366459</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.74778721263662</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>175.1748870206051</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.74589372341795</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>175.1698680786255</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.74684046802729</v>
       </c>
     </row>
@@ -19286,27 +19294,28 @@
       <c r="P5" t="n">
         <v>372.0468033819312</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (175.16511533793658 -36.748592005854064, 175.17504279455974 -36.74635379416353)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>175.1651153379366</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.74859200585406</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>175.1750427945597</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.74635379416353</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>175.1700790662481</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.7474729000088</v>
       </c>
     </row>
@@ -19363,27 +19372,28 @@
       <c r="P6" t="n">
         <v>381.2259763229392</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (175.16552709096803 -36.74970277782533, 175.1749746175794 -36.746384007586755)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>175.165527090968</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.74970277782533</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>175.1749746175794</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.74638400758676</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>175.1702508542737</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.74804339270604</v>
       </c>
     </row>
@@ -19440,27 +19450,28 @@
       <c r="P7" t="n">
         <v>381.2527007002667</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
         <is>
           <t>LINESTRING (175.1663587372637 -36.75086185072126, 175.17484940202218 -36.74616108987176)</t>
         </is>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>175.1663587372637</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>-36.75086185072126</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>175.1748494020222</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>-36.74616108987176</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>175.1706040696429</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>-36.74851147029651</v>
       </c>
     </row>
@@ -19517,27 +19528,28 @@
       <c r="P8" t="n">
         <v>380.1130247100398</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
         <is>
           <t>LINESTRING (175.16718844204436 -36.75174210551324, 175.17492836692847 -36.746268106654135)</t>
         </is>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>175.1671884420444</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>-36.75174210551324</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>175.1749283669285</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>-36.74626810665414</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>175.1710584044864</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>-36.74900510608369</v>
       </c>
     </row>
@@ -19594,27 +19606,28 @@
       <c r="P9" t="n">
         <v>377.9863692931912</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr">
         <is>
           <t>LINESTRING (175.1680364596389 -36.75244335853723, 175.17520957634764 -36.746491695389324)</t>
         </is>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>175.1680364596389</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>-36.75244335853723</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>175.1752095763476</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>-36.74649169538932</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>175.1716230179933</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>-36.74946752696327</v>
       </c>
     </row>
@@ -19671,27 +19684,28 @@
       <c r="P10" t="n">
         <v>385.6664948885033</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr">
         <is>
           <t>LINESTRING (175.16871809100408 -36.75297400438908, 175.17579516505327 -36.7469485579063)</t>
         </is>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>175.1687180910041</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>-36.75297400438908</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>175.1757951650533</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>-36.7469485579063</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>175.1722566280287</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>-36.74996128114769</v>
       </c>
     </row>

--- a/data/nzd0163/nzd0163.xlsx
+++ b/data/nzd0163/nzd0163.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K395"/>
+  <dimension ref="A1:K398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14716,6 +14716,123 @@
         <v>380.69</v>
       </c>
       <c r="K395" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="n">
+        <v>359.4864705882353</v>
+      </c>
+      <c r="C396" t="n">
+        <v>369.3664705882353</v>
+      </c>
+      <c r="D396" t="n">
+        <v>379.148064516129</v>
+      </c>
+      <c r="E396" t="n">
+        <v>374.53</v>
+      </c>
+      <c r="F396" t="n">
+        <v>380.4745454545454</v>
+      </c>
+      <c r="G396" t="n">
+        <v>381.8</v>
+      </c>
+      <c r="H396" t="n">
+        <v>379.4355555555555</v>
+      </c>
+      <c r="I396" t="n">
+        <v>376.59</v>
+      </c>
+      <c r="J396" t="n">
+        <v>381.15</v>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="n">
+        <v>369.4717647058824</v>
+      </c>
+      <c r="C397" t="n">
+        <v>367.9117647058824</v>
+      </c>
+      <c r="D397" t="n">
+        <v>375.7412903225807</v>
+      </c>
+      <c r="E397" t="n">
+        <v>376.78</v>
+      </c>
+      <c r="F397" t="n">
+        <v>393.1754545454546</v>
+      </c>
+      <c r="G397" t="n">
+        <v>383.07</v>
+      </c>
+      <c r="H397" t="n">
+        <v>381.6888888888889</v>
+      </c>
+      <c r="I397" t="n">
+        <v>379.6072413793103</v>
+      </c>
+      <c r="J397" t="n">
+        <v>387.84</v>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="n">
+        <v>358.9588235294117</v>
+      </c>
+      <c r="C398" t="n">
+        <v>362.4888235294118</v>
+      </c>
+      <c r="D398" t="n">
+        <v>374.2806451612903</v>
+      </c>
+      <c r="E398" t="n">
+        <v>371.6</v>
+      </c>
+      <c r="F398" t="n">
+        <v>383.8663636363637</v>
+      </c>
+      <c r="G398" t="n">
+        <v>382.095</v>
+      </c>
+      <c r="H398" t="n">
+        <v>379.39</v>
+      </c>
+      <c r="I398" t="n">
+        <v>379.6806896551725</v>
+      </c>
+      <c r="J398" t="n">
+        <v>383.58</v>
+      </c>
+      <c r="K398" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -14732,7 +14849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B413"/>
+  <dimension ref="A1:B416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18870,6 +18987,36 @@
       </c>
       <c r="B413" t="n">
         <v>-0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B414" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B415" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B416" t="n">
+        <v>0.09</v>
       </c>
     </row>
   </sheetData>
@@ -19037,28 +19184,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.01206647790456794</v>
+        <v>-0.01163051946751076</v>
       </c>
       <c r="J2" t="n">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K2" t="n">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001044701199984788</v>
+        <v>9.855677411618746e-05</v>
       </c>
       <c r="M2" t="n">
-        <v>6.290944789726195</v>
+        <v>6.274334364514249</v>
       </c>
       <c r="N2" t="n">
-        <v>71.21934542601399</v>
+        <v>70.78373988705509</v>
       </c>
       <c r="O2" t="n">
-        <v>8.4391554924657</v>
+        <v>8.413307309676444</v>
       </c>
       <c r="P2" t="n">
-        <v>362.6996366794921</v>
+        <v>362.6952179748868</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19115,28 +19262,28 @@
         <v>0.0919</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.04976042384571358</v>
+        <v>-0.0526690853846085</v>
       </c>
       <c r="J3" t="n">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K3" t="n">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L3" t="n">
-        <v>0.002921192660331418</v>
+        <v>0.003323118459641394</v>
       </c>
       <c r="M3" t="n">
-        <v>4.685710286339652</v>
+        <v>4.665903837984395</v>
       </c>
       <c r="N3" t="n">
-        <v>44.56761822349984</v>
+        <v>44.2786809899816</v>
       </c>
       <c r="O3" t="n">
-        <v>6.675898308355201</v>
+        <v>6.654222793834123</v>
       </c>
       <c r="P3" t="n">
-        <v>369.5438911694993</v>
+        <v>369.5727065775139</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19193,28 +19340,28 @@
         <v>0.1742</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01719809328133497</v>
+        <v>-0.01963629039327722</v>
       </c>
       <c r="J4" t="n">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K4" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004684839674495844</v>
+        <v>0.0006213300015480705</v>
       </c>
       <c r="M4" t="n">
-        <v>4.3850862499788</v>
+        <v>4.366512030248942</v>
       </c>
       <c r="N4" t="n">
-        <v>33.32220921765461</v>
+        <v>33.07414972729535</v>
       </c>
       <c r="O4" t="n">
-        <v>5.77253923483025</v>
+        <v>5.751012930544962</v>
       </c>
       <c r="P4" t="n">
-        <v>378.1861090781462</v>
+        <v>378.210094218527</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19271,28 +19418,28 @@
         <v>0.1393</v>
       </c>
       <c r="I5" t="n">
-        <v>0.004827615535292897</v>
+        <v>0.008773501125217754</v>
       </c>
       <c r="J5" t="n">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K5" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L5" t="n">
-        <v>1.890036620888491e-05</v>
+        <v>6.357838438764141e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>5.416934186956604</v>
+        <v>5.387625904228099</v>
       </c>
       <c r="N5" t="n">
-        <v>62.11266373300057</v>
+        <v>61.63059090183646</v>
       </c>
       <c r="O5" t="n">
-        <v>7.88115878110577</v>
+        <v>7.850515327151235</v>
       </c>
       <c r="P5" t="n">
-        <v>372.0468033819312</v>
+        <v>372.0071629194013</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19349,28 +19496,28 @@
         <v>0.0564</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.01479386483161678</v>
+        <v>-0.006272772923221416</v>
       </c>
       <c r="J6" t="n">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K6" t="n">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0001434939193082352</v>
+        <v>2.611493659465669e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>6.647936049595887</v>
+        <v>6.635826209094008</v>
       </c>
       <c r="N6" t="n">
-        <v>78.36941641995786</v>
+        <v>78.1524851930677</v>
       </c>
       <c r="O6" t="n">
-        <v>8.852650248369573</v>
+        <v>8.840389425419431</v>
       </c>
       <c r="P6" t="n">
-        <v>381.2259763229392</v>
+        <v>381.1405706868662</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19427,28 +19574,28 @@
         <v>0.0829</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.01854191312227096</v>
+        <v>-0.01582706512093127</v>
       </c>
       <c r="J7" t="n">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K7" t="n">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004660081413331296</v>
+        <v>0.0003459322968737411</v>
       </c>
       <c r="M7" t="n">
-        <v>4.639113283434185</v>
+        <v>4.611072923066383</v>
       </c>
       <c r="N7" t="n">
-        <v>38.47559909294458</v>
+        <v>38.16272026471233</v>
       </c>
       <c r="O7" t="n">
-        <v>6.202870230219601</v>
+        <v>6.177598260223169</v>
       </c>
       <c r="P7" t="n">
-        <v>381.2527007002667</v>
+        <v>381.2262016572815</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19505,28 +19652,28 @@
         <v>0.0953</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02027189259543697</v>
+        <v>0.01943422321124225</v>
       </c>
       <c r="J8" t="n">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K8" t="n">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0006259676643518564</v>
+        <v>0.0005868468009194716</v>
       </c>
       <c r="M8" t="n">
-        <v>4.543875058732737</v>
+        <v>4.512881771046471</v>
       </c>
       <c r="N8" t="n">
-        <v>34.89932782926477</v>
+        <v>34.59156612208826</v>
       </c>
       <c r="O8" t="n">
-        <v>5.907565304697425</v>
+        <v>5.881459523119092</v>
       </c>
       <c r="P8" t="n">
-        <v>380.1130247100398</v>
+        <v>380.121065922288</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19583,28 +19730,28 @@
         <v>0.1606</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0629303919264716</v>
+        <v>0.06119084087230404</v>
       </c>
       <c r="J9" t="n">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K9" t="n">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006848009497916863</v>
+        <v>0.006602169170177086</v>
       </c>
       <c r="M9" t="n">
-        <v>4.054339272228202</v>
+        <v>4.026090032812232</v>
       </c>
       <c r="N9" t="n">
-        <v>30.64024710198367</v>
+        <v>30.38701664439107</v>
       </c>
       <c r="O9" t="n">
-        <v>5.535363321588175</v>
+        <v>5.512441985580535</v>
       </c>
       <c r="P9" t="n">
-        <v>377.9863692931912</v>
+        <v>378.002963211197</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19661,28 +19808,28 @@
         <v>0.1069</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.01493074437944434</v>
+        <v>-0.01699268254753942</v>
       </c>
       <c r="J10" t="n">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K10" t="n">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003189625514097294</v>
+        <v>0.0004207258064974351</v>
       </c>
       <c r="M10" t="n">
-        <v>4.630625980769856</v>
+        <v>4.612718438865525</v>
       </c>
       <c r="N10" t="n">
-        <v>36.56670415709362</v>
+        <v>36.30735939646741</v>
       </c>
       <c r="O10" t="n">
-        <v>6.047040942237254</v>
+        <v>6.025558845158465</v>
       </c>
       <c r="P10" t="n">
-        <v>385.6664948885033</v>
+        <v>385.6865015822394</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19720,7 +19867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K395"/>
+  <dimension ref="A1:K398"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39967,6 +40114,177 @@
         </is>
       </c>
     </row>
+    <row r="396">
+      <c r="A396" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>-36.74563836592798,175.1685529603625</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>-36.74632877100952,175.1687249431855</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>-36.74700764895049,175.168982407387</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>-36.74768169104432,175.16915349406693</t>
+        </is>
+      </c>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>-36.74833131904905,175.169431568749</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>-36.748911997900464,175.169880877893</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
+        <is>
+          <t>-36.74948516239422,175.17037984698888</t>
+        </is>
+      </c>
+      <c r="I396" t="inlineStr">
+        <is>
+          <t>-36.75000756665219,175.17097233898215</t>
+        </is>
+      </c>
+      <c r="J396" t="inlineStr">
+        <is>
+          <t>-36.750478099750694,175.17164979827092</t>
+        </is>
+      </c>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:54+00:00</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>-36.74563063054524,175.1686643477648</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>-36.74633055791193,175.16870880733458</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>-36.747014654223086,175.1689452689482</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>-36.74767622189591,175.16917775310088</t>
+        </is>
+      </c>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>-36.74828553520638,175.16956190459038</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>-36.7489055118444,175.1698925934592</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>-36.749471758968724,175.1703987990503</t>
+        </is>
+      </c>
+      <c r="I397" t="inlineStr">
+        <is>
+          <t>-36.749988050800845,175.17099586051611</t>
+        </is>
+      </c>
+      <c r="J397" t="inlineStr">
+        <is>
+          <t>-36.75043429067244,175.1717012543278</t>
+        </is>
+      </c>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="inlineStr">
+        <is>
+          <t>2025-04-12 22:05:36+00:00</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>-36.74563877468141,175.16854707438236</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>-36.74633721921647,175.16864865511926</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>-36.747017657711154,175.16892934594142</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>-36.747688813083656,175.16912190340835</t>
+        </is>
+      </c>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>-36.7483190923417,175.16946637536586</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>-36.748910491296996,175.1698835992255</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>-36.74948543337075,175.1703794638357</t>
+        </is>
+      </c>
+      <c r="I398" t="inlineStr">
+        <is>
+          <t>-36.7499875757292,175.17099643309732</t>
+        </is>
+      </c>
+      <c r="J398" t="inlineStr">
+        <is>
+          <t>-36.75046218703856,175.17166848859432</t>
+        </is>
+      </c>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0163/nzd0163.xlsx
+++ b/data/nzd0163/nzd0163.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K398"/>
+  <dimension ref="A1:K399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14833,6 +14833,45 @@
         <v>383.58</v>
       </c>
       <c r="K398" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:02+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="n">
+        <v>362.2935294117647</v>
+      </c>
+      <c r="C399" t="n">
+        <v>365.3535294117647</v>
+      </c>
+      <c r="D399" t="n">
+        <v>376.5219354838709</v>
+      </c>
+      <c r="E399" t="n">
+        <v>372.73</v>
+      </c>
+      <c r="F399" t="n">
+        <v>392.3454545454546</v>
+      </c>
+      <c r="G399" t="n">
+        <v>381.76</v>
+      </c>
+      <c r="H399" t="n">
+        <v>384.5544444444445</v>
+      </c>
+      <c r="I399" t="n">
+        <v>382.16</v>
+      </c>
+      <c r="J399" t="n">
+        <v>388.14</v>
+      </c>
+      <c r="K399" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -14849,7 +14888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B416"/>
+  <dimension ref="A1:B417"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19017,6 +19056,16 @@
       </c>
       <c r="B416" t="n">
         <v>0.09</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B417" t="n">
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>
@@ -19184,28 +19233,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.01163051946751076</v>
+        <v>-0.01169329870972057</v>
       </c>
       <c r="J2" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K2" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L2" t="n">
-        <v>9.855677411618746e-05</v>
+        <v>0.0001002380745858122</v>
       </c>
       <c r="M2" t="n">
-        <v>6.274334364514249</v>
+        <v>6.255641527817481</v>
       </c>
       <c r="N2" t="n">
-        <v>70.78373988705509</v>
+        <v>70.56927675578775</v>
       </c>
       <c r="O2" t="n">
-        <v>8.413307309676444</v>
+        <v>8.400552169696214</v>
       </c>
       <c r="P2" t="n">
-        <v>362.6952179748868</v>
+        <v>362.6958605788407</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19262,28 +19311,28 @@
         <v>0.0919</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0526690853846085</v>
+        <v>-0.05431130507041027</v>
       </c>
       <c r="J3" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K3" t="n">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003323118459641394</v>
+        <v>0.003552204970286188</v>
       </c>
       <c r="M3" t="n">
-        <v>4.665903837984395</v>
+        <v>4.660664655301877</v>
       </c>
       <c r="N3" t="n">
-        <v>44.2786809899816</v>
+        <v>44.17378192013254</v>
       </c>
       <c r="O3" t="n">
-        <v>6.654222793834123</v>
+        <v>6.646335977072821</v>
       </c>
       <c r="P3" t="n">
-        <v>369.5727065775139</v>
+        <v>369.5890268362671</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19340,28 +19389,28 @@
         <v>0.1742</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01963629039327722</v>
+        <v>-0.02034412592987609</v>
       </c>
       <c r="J4" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K4" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0006213300015480705</v>
+        <v>0.0006710648971169908</v>
       </c>
       <c r="M4" t="n">
-        <v>4.366512030248942</v>
+        <v>4.357092396008095</v>
       </c>
       <c r="N4" t="n">
-        <v>33.07414972729535</v>
+        <v>32.9787338271306</v>
       </c>
       <c r="O4" t="n">
-        <v>5.751012930544962</v>
+        <v>5.742711365472811</v>
       </c>
       <c r="P4" t="n">
-        <v>378.210094218527</v>
+        <v>378.2170826157687</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19418,28 +19467,28 @@
         <v>0.1393</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008773501125217754</v>
+        <v>0.009083466802723992</v>
       </c>
       <c r="J5" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K5" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L5" t="n">
-        <v>6.357838438764141e-05</v>
+        <v>6.859938834169466e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>5.387625904228099</v>
+        <v>5.372656241138787</v>
       </c>
       <c r="N5" t="n">
-        <v>61.63059090183646</v>
+        <v>61.44569932430537</v>
       </c>
       <c r="O5" t="n">
-        <v>7.850515327151235</v>
+        <v>7.838730721507493</v>
       </c>
       <c r="P5" t="n">
-        <v>372.0071629194013</v>
+        <v>372.0040226310157</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19496,28 +19545,28 @@
         <v>0.0564</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.006272772923221416</v>
+        <v>0.0002276083326748118</v>
       </c>
       <c r="J6" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K6" t="n">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L6" t="n">
-        <v>2.611493659465669e-05</v>
+        <v>3.443021956428538e-08</v>
       </c>
       <c r="M6" t="n">
-        <v>6.635826209094008</v>
+        <v>6.64927675080477</v>
       </c>
       <c r="N6" t="n">
-        <v>78.1524851930677</v>
+        <v>78.29456424034527</v>
       </c>
       <c r="O6" t="n">
-        <v>8.840389425419431</v>
+        <v>8.848421567734285</v>
       </c>
       <c r="P6" t="n">
-        <v>381.1405706868662</v>
+        <v>381.0749874054699</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19574,28 +19623,28 @@
         <v>0.0829</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.01582706512093127</v>
+        <v>-0.01527327564128363</v>
       </c>
       <c r="J7" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K7" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003459322968737411</v>
+        <v>0.0003242032424447538</v>
       </c>
       <c r="M7" t="n">
-        <v>4.611072923066383</v>
+        <v>4.600197660674458</v>
       </c>
       <c r="N7" t="n">
-        <v>38.16272026471233</v>
+        <v>38.05462846326959</v>
       </c>
       <c r="O7" t="n">
-        <v>6.177598260223169</v>
+        <v>6.168843365110642</v>
       </c>
       <c r="P7" t="n">
-        <v>381.2262016572815</v>
+        <v>381.2207584784159</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19652,28 +19701,28 @@
         <v>0.0953</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01943422321124225</v>
+        <v>0.02185676431541277</v>
       </c>
       <c r="J8" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K8" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0005868468009194716</v>
+        <v>0.000746162086554536</v>
       </c>
       <c r="M8" t="n">
-        <v>4.512881771046471</v>
+        <v>4.510953396062108</v>
       </c>
       <c r="N8" t="n">
-        <v>34.59156612208826</v>
+        <v>34.53291066452505</v>
       </c>
       <c r="O8" t="n">
-        <v>5.881459523119092</v>
+        <v>5.876470936244393</v>
       </c>
       <c r="P8" t="n">
-        <v>380.121065922288</v>
+        <v>380.0976436268705</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19730,28 +19779,28 @@
         <v>0.1606</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06119084087230404</v>
+        <v>0.0627815586602955</v>
       </c>
       <c r="J9" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K9" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006602169170177086</v>
+        <v>0.006989430410818009</v>
       </c>
       <c r="M9" t="n">
-        <v>4.026090032812232</v>
+        <v>4.022244290876041</v>
       </c>
       <c r="N9" t="n">
-        <v>30.38701664439107</v>
+        <v>30.31493398946226</v>
       </c>
       <c r="O9" t="n">
-        <v>5.512441985580535</v>
+        <v>5.505899925485593</v>
       </c>
       <c r="P9" t="n">
-        <v>378.002963211197</v>
+        <v>377.9876254324871</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19808,28 +19857,28 @@
         <v>0.1069</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.01699268254753942</v>
+        <v>-0.01516911113164003</v>
       </c>
       <c r="J10" t="n">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K10" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004207258064974351</v>
+        <v>0.0003373708718716895</v>
       </c>
       <c r="M10" t="n">
-        <v>4.612718438865525</v>
+        <v>4.607962855463022</v>
       </c>
       <c r="N10" t="n">
-        <v>36.30735939646741</v>
+        <v>36.22023268458715</v>
       </c>
       <c r="O10" t="n">
-        <v>6.025558845158465</v>
+        <v>6.018324740705436</v>
       </c>
       <c r="P10" t="n">
-        <v>385.6865015822394</v>
+        <v>385.6686387444126</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19867,7 +19916,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K398"/>
+  <dimension ref="A1:K399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40285,6 +40334,63 @@
         </is>
       </c>
     </row>
+    <row r="399">
+      <c r="A399" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-14 22:05:02+00:00</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>-36.745636191373116,175.1685842735131</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>-36.7463337003404,175.16868043094118</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>-36.74701304900114,175.1689537790352</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>-36.747686066359556,175.16913408683715</t>
+        </is>
+      </c>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>-36.74828852716883,175.1695533871933</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>-36.74891220218569,175.16988050889879</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>-36.749454713878656,175.17042290030622</t>
+        </is>
+      </c>
+      <c r="I399" t="inlineStr">
+        <is>
+          <t>-36.74997153927203,175.17101576106865</t>
+        </is>
+      </c>
+      <c r="J399" t="inlineStr">
+        <is>
+          <t>-36.7504323261393,175.17170356177292</t>
+        </is>
+      </c>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0163/nzd0163.xlsx
+++ b/data/nzd0163/nzd0163.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K399"/>
+  <dimension ref="A1:K400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14874,6 +14874,45 @@
       <c r="K399" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="n">
+        <v>352.2594117647059</v>
+      </c>
+      <c r="C400" t="n">
+        <v>364.1294117647059</v>
+      </c>
+      <c r="D400" t="n">
+        <v>379.418064516129</v>
+      </c>
+      <c r="E400" t="n">
+        <v>370.81</v>
+      </c>
+      <c r="F400" t="n">
+        <v>373.6281818181818</v>
+      </c>
+      <c r="G400" t="n">
+        <v>379.065</v>
+      </c>
+      <c r="H400" t="n">
+        <v>378.8411111111111</v>
+      </c>
+      <c r="I400" t="n">
+        <v>375.3720689655173</v>
+      </c>
+      <c r="J400" t="n">
+        <v>384.7600000000001</v>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -14888,7 +14927,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B417"/>
+  <dimension ref="A1:B418"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19066,6 +19105,16 @@
       </c>
       <c r="B417" t="n">
         <v>0.58</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B418" t="n">
+        <v>-0.89</v>
       </c>
     </row>
   </sheetData>
@@ -19233,28 +19282,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.01169329870972057</v>
+        <v>-0.01774248667892439</v>
       </c>
       <c r="J2" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K2" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0001002380745858122</v>
+        <v>0.0002311579644478368</v>
       </c>
       <c r="M2" t="n">
-        <v>6.255641527817481</v>
+        <v>6.267589155929612</v>
       </c>
       <c r="N2" t="n">
-        <v>70.56927675578775</v>
+        <v>70.66370750378829</v>
       </c>
       <c r="O2" t="n">
-        <v>8.400552169696214</v>
+        <v>8.406170799108729</v>
       </c>
       <c r="P2" t="n">
-        <v>362.6958605788407</v>
+        <v>362.7579754101874</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19311,28 +19360,28 @@
         <v>0.0919</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.05431130507041027</v>
+        <v>-0.05662980023195897</v>
       </c>
       <c r="J3" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K3" t="n">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003552204970286188</v>
+        <v>0.003879848772769368</v>
       </c>
       <c r="M3" t="n">
-        <v>4.660664655301877</v>
+        <v>4.658870698714558</v>
       </c>
       <c r="N3" t="n">
-        <v>44.17378192013254</v>
+        <v>44.09333377472858</v>
       </c>
       <c r="O3" t="n">
-        <v>6.646335977072821</v>
+        <v>6.640281151783302</v>
       </c>
       <c r="P3" t="n">
-        <v>369.5890268362671</v>
+        <v>369.612141331606</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19389,28 +19438,28 @@
         <v>0.1742</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.02034412592987609</v>
+        <v>-0.01932094166134168</v>
       </c>
       <c r="J4" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K4" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0006710648971169908</v>
+        <v>0.000608994756922776</v>
       </c>
       <c r="M4" t="n">
-        <v>4.357092396008095</v>
+        <v>4.348902455981669</v>
       </c>
       <c r="N4" t="n">
-        <v>32.9787338271306</v>
+        <v>32.88851457693452</v>
       </c>
       <c r="O4" t="n">
-        <v>5.742711365472811</v>
+        <v>5.73485087660826</v>
       </c>
       <c r="P4" t="n">
-        <v>378.2170826157687</v>
+        <v>378.2069489435768</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19467,28 +19516,28 @@
         <v>0.1393</v>
       </c>
       <c r="I5" t="n">
-        <v>0.009083466802723992</v>
+        <v>0.008200350864787417</v>
       </c>
       <c r="J5" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K5" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L5" t="n">
-        <v>6.859938834169466e-05</v>
+        <v>5.627358506776758e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>5.372656241138787</v>
+        <v>5.361455732742254</v>
       </c>
       <c r="N5" t="n">
-        <v>61.44569932430537</v>
+        <v>61.26722933135829</v>
       </c>
       <c r="O5" t="n">
-        <v>7.838730721507493</v>
+        <v>7.827338585455358</v>
       </c>
       <c r="P5" t="n">
-        <v>372.0040226310157</v>
+        <v>372.0129960891561</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19545,28 +19594,28 @@
         <v>0.0564</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0002276083326748118</v>
+        <v>-0.004024028809706261</v>
       </c>
       <c r="J6" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K6" t="n">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L6" t="n">
-        <v>3.443021956428538e-08</v>
+        <v>1.080498574013156e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>6.64927675080477</v>
+        <v>6.651388944512648</v>
       </c>
       <c r="N6" t="n">
-        <v>78.29456424034527</v>
+        <v>78.22853347943388</v>
       </c>
       <c r="O6" t="n">
-        <v>8.848421567734285</v>
+        <v>8.844689563768412</v>
       </c>
       <c r="P6" t="n">
-        <v>381.0749874054699</v>
+        <v>381.1180151577927</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19623,28 +19672,28 @@
         <v>0.0829</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.01527327564128363</v>
+        <v>-0.01631236892729578</v>
       </c>
       <c r="J7" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K7" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003242032424447538</v>
+        <v>0.0003720883177724676</v>
       </c>
       <c r="M7" t="n">
-        <v>4.600197660674458</v>
+        <v>4.59238253405296</v>
       </c>
       <c r="N7" t="n">
-        <v>38.05462846326959</v>
+        <v>37.95356449044669</v>
       </c>
       <c r="O7" t="n">
-        <v>6.168843365110642</v>
+        <v>6.160646434461784</v>
       </c>
       <c r="P7" t="n">
-        <v>381.2207584784159</v>
+        <v>381.2310025880005</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19701,28 +19750,28 @@
         <v>0.0953</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02185676431541277</v>
+        <v>0.02074386569912923</v>
       </c>
       <c r="J8" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K8" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000746162086554536</v>
+        <v>0.0006765079784252226</v>
       </c>
       <c r="M8" t="n">
-        <v>4.510953396062108</v>
+        <v>4.502787291370357</v>
       </c>
       <c r="N8" t="n">
-        <v>34.53291066452505</v>
+        <v>34.43787022715533</v>
       </c>
       <c r="O8" t="n">
-        <v>5.876470936244393</v>
+        <v>5.868378841482145</v>
       </c>
       <c r="P8" t="n">
-        <v>380.0976436268705</v>
+        <v>380.1084367341107</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19779,28 +19828,28 @@
         <v>0.1606</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0627815586602955</v>
+        <v>0.06020405761887385</v>
       </c>
       <c r="J9" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K9" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006989430410818009</v>
+        <v>0.006462684886679781</v>
       </c>
       <c r="M9" t="n">
-        <v>4.022244290876041</v>
+        <v>4.021945644915507</v>
       </c>
       <c r="N9" t="n">
-        <v>30.31493398946226</v>
+        <v>30.27655333819633</v>
       </c>
       <c r="O9" t="n">
-        <v>5.505899925485593</v>
+        <v>5.502413410331537</v>
       </c>
       <c r="P9" t="n">
-        <v>377.9876254324871</v>
+        <v>378.0125543207196</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19857,28 +19906,28 @@
         <v>0.1069</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.01516911113164003</v>
+        <v>-0.01549664116804285</v>
       </c>
       <c r="J10" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K10" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003373708718716895</v>
+        <v>0.0003545075190186653</v>
       </c>
       <c r="M10" t="n">
-        <v>4.607962855463022</v>
+        <v>4.595184671236838</v>
       </c>
       <c r="N10" t="n">
-        <v>36.22023268458715</v>
+        <v>36.10892642849645</v>
       </c>
       <c r="O10" t="n">
-        <v>6.018324740705436</v>
+        <v>6.009070346442654</v>
       </c>
       <c r="P10" t="n">
-        <v>385.6686387444126</v>
+        <v>385.6718568074162</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19916,7 +19965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K399"/>
+  <dimension ref="A1:K400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29811,7 +29860,7 @@
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>-36.75000631986821,175.17097384167252</t>
+          <t>-36.750006319868206,175.17097384167252</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -37215,7 +37264,7 @@
       </c>
       <c r="G339" t="inlineStr">
         <is>
-          <t>-36.748891033124686,175.1699187459166</t>
+          <t>-36.74889103312469,175.1699187459166</t>
         </is>
       </c>
       <c r="H339" t="inlineStr">
@@ -40391,6 +40440,63 @@
         </is>
       </c>
     </row>
+    <row r="400">
+      <c r="A400" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>-36.74564396450324,175.16847234145723</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>-36.74633520399258,175.16866685281315</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>-36.74700709375513,175.16898535075129</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>-36.74769073335907,175.16911338578942</t>
+        </is>
+      </c>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>-36.74835599855076,175.16936131177715</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>-36.748925965899424,175.1698556479071</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>-36.74948869830728,175.1703748473069</t>
+        </is>
+      </c>
+      <c r="I400" t="inlineStr">
+        <is>
+          <t>-36.750015444363754,175.1709628443436</t>
+        </is>
+      </c>
+      <c r="J400" t="inlineStr">
+        <is>
+          <t>-36.750454459876956,175.171677564551</t>
+        </is>
+      </c>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0163/nzd0163.xlsx
+++ b/data/nzd0163/nzd0163.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K400"/>
+  <dimension ref="A1:K401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14913,6 +14913,45 @@
       <c r="K400" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:16+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="n">
+        <v>362.8470588235294</v>
+      </c>
+      <c r="C401" t="n">
+        <v>373.3970588235294</v>
+      </c>
+      <c r="D401" t="n">
+        <v>380.1803225806452</v>
+      </c>
+      <c r="E401" t="n">
+        <v>370.44</v>
+      </c>
+      <c r="F401" t="n">
+        <v>392.4090909090909</v>
+      </c>
+      <c r="G401" t="n">
+        <v>386.65</v>
+      </c>
+      <c r="H401" t="n">
+        <v>387.5011111111111</v>
+      </c>
+      <c r="I401" t="n">
+        <v>385.0351724137931</v>
+      </c>
+      <c r="J401" t="n">
+        <v>390.26</v>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -14927,7 +14966,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B418"/>
+  <dimension ref="A1:B419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19115,6 +19154,16 @@
       </c>
       <c r="B418" t="n">
         <v>-0.89</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B419" t="n">
+        <v>0.82</v>
       </c>
     </row>
   </sheetData>
@@ -19282,28 +19331,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.01774248667892439</v>
+        <v>-0.01742050275537642</v>
       </c>
       <c r="J2" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K2" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002311579644478368</v>
+        <v>0.0002242078066788666</v>
       </c>
       <c r="M2" t="n">
-        <v>6.267589155929612</v>
+        <v>6.250309871538968</v>
       </c>
       <c r="N2" t="n">
-        <v>70.66370750378829</v>
+        <v>70.45174624141038</v>
       </c>
       <c r="O2" t="n">
-        <v>8.406170799108729</v>
+        <v>8.393553850509948</v>
       </c>
       <c r="P2" t="n">
-        <v>362.7579754101874</v>
+        <v>362.7546657095224</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19360,28 +19409,28 @@
         <v>0.0919</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.05662980023195897</v>
+        <v>-0.05366807358024174</v>
       </c>
       <c r="J3" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K3" t="n">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003879848772769368</v>
+        <v>0.003500631359653172</v>
       </c>
       <c r="M3" t="n">
-        <v>4.658870698714558</v>
+        <v>4.660523476064085</v>
       </c>
       <c r="N3" t="n">
-        <v>44.09333377472858</v>
+        <v>44.0443987482819</v>
       </c>
       <c r="O3" t="n">
-        <v>6.640281151783302</v>
+        <v>6.636595418456809</v>
       </c>
       <c r="P3" t="n">
-        <v>369.612141331606</v>
+        <v>369.5825827689794</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19438,28 +19487,28 @@
         <v>0.1742</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01932094166134168</v>
+        <v>-0.01786455703064184</v>
       </c>
       <c r="J4" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K4" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000608994756922776</v>
+        <v>0.0005236929068755947</v>
       </c>
       <c r="M4" t="n">
-        <v>4.348902455981669</v>
+        <v>4.342956352785559</v>
       </c>
       <c r="N4" t="n">
-        <v>32.88851457693452</v>
+        <v>32.80811481538108</v>
       </c>
       <c r="O4" t="n">
-        <v>5.73485087660826</v>
+        <v>5.7278368356109</v>
       </c>
       <c r="P4" t="n">
-        <v>378.2069489435768</v>
+        <v>378.1925096959848</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19516,28 +19565,28 @@
         <v>0.1393</v>
       </c>
       <c r="I5" t="n">
-        <v>0.008200350864787417</v>
+        <v>0.007104683898389469</v>
       </c>
       <c r="J5" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K5" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L5" t="n">
-        <v>5.627358506776758e-05</v>
+        <v>4.251130887200638e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>5.361455732742254</v>
+        <v>5.351493471072528</v>
       </c>
       <c r="N5" t="n">
-        <v>61.26722933135829</v>
+        <v>61.09322205978455</v>
       </c>
       <c r="O5" t="n">
-        <v>7.827338585455358</v>
+        <v>7.816215328391648</v>
       </c>
       <c r="P5" t="n">
-        <v>372.0129960891561</v>
+        <v>372.0241402951688</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19594,28 +19643,28 @@
         <v>0.0564</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.004024028809706261</v>
+        <v>0.002432642770920247</v>
       </c>
       <c r="J6" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K6" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L6" t="n">
-        <v>1.080498574013156e-05</v>
+        <v>3.953936130396407e-06</v>
       </c>
       <c r="M6" t="n">
-        <v>6.651388944512648</v>
+        <v>6.664797763334203</v>
       </c>
       <c r="N6" t="n">
-        <v>78.22853347943388</v>
+        <v>78.37147626873126</v>
       </c>
       <c r="O6" t="n">
-        <v>8.844689563768412</v>
+        <v>8.852766588402252</v>
       </c>
       <c r="P6" t="n">
-        <v>381.1180151577927</v>
+        <v>381.0526048000023</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19672,28 +19721,28 @@
         <v>0.0829</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.01631236892729578</v>
+        <v>-0.0129009652460281</v>
       </c>
       <c r="J7" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K7" t="n">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003720883177724676</v>
+        <v>0.0002336474649449194</v>
       </c>
       <c r="M7" t="n">
-        <v>4.59238253405296</v>
+        <v>4.594572583919852</v>
       </c>
       <c r="N7" t="n">
-        <v>37.95356449044669</v>
+        <v>37.94146011486756</v>
       </c>
       <c r="O7" t="n">
-        <v>6.160646434461784</v>
+        <v>6.159663961196873</v>
       </c>
       <c r="P7" t="n">
-        <v>381.2310025880005</v>
+        <v>381.1973367295747</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19750,28 +19799,28 @@
         <v>0.0953</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02074386569912923</v>
+        <v>0.02491724293424927</v>
       </c>
       <c r="J8" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K8" t="n">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0006765079784252226</v>
+        <v>0.0009783182803771995</v>
       </c>
       <c r="M8" t="n">
-        <v>4.502787291370357</v>
+        <v>4.509823656391747</v>
       </c>
       <c r="N8" t="n">
-        <v>34.43787022715533</v>
+        <v>34.4748025490495</v>
       </c>
       <c r="O8" t="n">
-        <v>5.868378841482145</v>
+        <v>5.871524720977465</v>
       </c>
       <c r="P8" t="n">
-        <v>380.1084367341107</v>
+        <v>380.0679211032428</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19828,28 +19877,28 @@
         <v>0.1606</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06020405761887385</v>
+        <v>0.06352486253645297</v>
       </c>
       <c r="J9" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K9" t="n">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L9" t="n">
-        <v>0.006462684886679781</v>
+        <v>0.00721645421750039</v>
       </c>
       <c r="M9" t="n">
-        <v>4.021945644915507</v>
+        <v>4.027376586660512</v>
       </c>
       <c r="N9" t="n">
-        <v>30.27655333819633</v>
+        <v>30.27497151371614</v>
       </c>
       <c r="O9" t="n">
-        <v>5.502413410331537</v>
+        <v>5.502269669301582</v>
       </c>
       <c r="P9" t="n">
-        <v>378.0125543207196</v>
+        <v>377.980403489392</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19906,28 +19955,28 @@
         <v>0.1069</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.01549664116804285</v>
+        <v>-0.01238487549843027</v>
       </c>
       <c r="J10" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K10" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003545075190186653</v>
+        <v>0.0002275240323862393</v>
       </c>
       <c r="M10" t="n">
-        <v>4.595184671236838</v>
+        <v>4.597407002017044</v>
       </c>
       <c r="N10" t="n">
-        <v>36.10892642849645</v>
+        <v>36.07342007366588</v>
       </c>
       <c r="O10" t="n">
-        <v>6.009070346442654</v>
+        <v>6.00611522314265</v>
       </c>
       <c r="P10" t="n">
-        <v>385.6718568074162</v>
+        <v>385.6412520592547</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -19965,7 +20014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K400"/>
+  <dimension ref="A1:K401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40497,6 +40546,63 @@
         </is>
       </c>
     </row>
+    <row r="401">
+      <c r="A401" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-15 22:05:16+00:00</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>-36.74563576256743,175.16859044821416</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>-36.74632381998515,175.16876965116757</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>-36.747005526339386,175.16899366039232</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>-36.74769163272835,175.16910939652473</t>
+        </is>
+      </c>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>-36.74828829777415,175.16955404022488</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>-36.74888722831033,175.1699256184302</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>-36.749437186313244,175.1704476837501</t>
+        </is>
+      </c>
+      <c r="I401" t="inlineStr">
+        <is>
+          <t>-36.749952942330985,175.17103817505372</t>
+        </is>
+      </c>
+      <c r="J401" t="inlineStr">
+        <is>
+          <t>-36.75041844343724,175.17171986771513</t>
+        </is>
+      </c>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0163/nzd0163.xlsx
+++ b/data/nzd0163/nzd0163.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K401"/>
+  <dimension ref="A1:K403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14952,6 +14952,84 @@
       <c r="K401" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="n">
+        <v>351.3170588235294</v>
+      </c>
+      <c r="C402" t="n">
+        <v>370.4470588235294</v>
+      </c>
+      <c r="D402" t="n">
+        <v>377.9229032258065</v>
+      </c>
+      <c r="E402" t="n">
+        <v>373.11</v>
+      </c>
+      <c r="F402" t="n">
+        <v>381.5127272727273</v>
+      </c>
+      <c r="G402" t="n">
+        <v>384.205</v>
+      </c>
+      <c r="H402" t="n">
+        <v>380.5688888888889</v>
+      </c>
+      <c r="I402" t="n">
+        <v>383.8982758620689</v>
+      </c>
+      <c r="J402" t="n">
+        <v>381.23</v>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="n">
+        <v>359.72</v>
+      </c>
+      <c r="C403" t="n">
+        <v>364.1</v>
+      </c>
+      <c r="D403" t="n">
+        <v>375.2703225806452</v>
+      </c>
+      <c r="E403" t="n">
+        <v>365.3</v>
+      </c>
+      <c r="F403" t="n">
+        <v>383.2427272727273</v>
+      </c>
+      <c r="G403" t="n">
+        <v>381.935</v>
+      </c>
+      <c r="H403" t="n">
+        <v>383.2666666666667</v>
+      </c>
+      <c r="I403" t="n">
+        <v>379.4172413793103</v>
+      </c>
+      <c r="J403" t="n">
+        <v>385.12</v>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -14966,7 +15044,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B419"/>
+  <dimension ref="A1:B421"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19164,6 +19242,26 @@
       </c>
       <c r="B419" t="n">
         <v>0.82</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B420" t="n">
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B421" t="n">
+        <v>0.51</v>
       </c>
     </row>
   </sheetData>
@@ -19331,28 +19429,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.01742050275537642</v>
+        <v>-0.02542316461937416</v>
       </c>
       <c r="J2" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K2" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002242078066788666</v>
+        <v>0.0004807304917695543</v>
       </c>
       <c r="M2" t="n">
-        <v>6.250309871538968</v>
+        <v>6.25469469011522</v>
       </c>
       <c r="N2" t="n">
-        <v>70.45174624141038</v>
+        <v>70.40646309059568</v>
       </c>
       <c r="O2" t="n">
-        <v>8.393553850509948</v>
+        <v>8.390855921215408</v>
       </c>
       <c r="P2" t="n">
-        <v>362.7546657095224</v>
+        <v>362.8374567433395</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19409,28 +19507,28 @@
         <v>0.0919</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.05366807358024174</v>
+        <v>-0.05471640847677627</v>
       </c>
       <c r="J3" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K3" t="n">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003500631359653172</v>
+        <v>0.003677031489158988</v>
       </c>
       <c r="M3" t="n">
-        <v>4.660523476064085</v>
+        <v>4.651963707437918</v>
       </c>
       <c r="N3" t="n">
-        <v>44.0443987482819</v>
+        <v>43.85398334431542</v>
       </c>
       <c r="O3" t="n">
-        <v>6.636595418456809</v>
+        <v>6.622234014614359</v>
       </c>
       <c r="P3" t="n">
-        <v>369.5825827689794</v>
+        <v>369.5931357191759</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19487,28 +19585,28 @@
         <v>0.1742</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01786455703064184</v>
+        <v>-0.01919960238873812</v>
       </c>
       <c r="J4" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K4" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0005236929068755947</v>
+        <v>0.0006122349837024421</v>
       </c>
       <c r="M4" t="n">
-        <v>4.342956352785559</v>
+        <v>4.325278781692994</v>
       </c>
       <c r="N4" t="n">
-        <v>32.80811481538108</v>
+        <v>32.63083421478123</v>
       </c>
       <c r="O4" t="n">
-        <v>5.7278368356109</v>
+        <v>5.712340519855345</v>
       </c>
       <c r="P4" t="n">
-        <v>378.1925096959848</v>
+        <v>378.2058436532436</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19565,28 +19663,28 @@
         <v>0.1393</v>
       </c>
       <c r="I5" t="n">
-        <v>0.007104683898389469</v>
+        <v>0.003431249991163401</v>
       </c>
       <c r="J5" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K5" t="n">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="L5" t="n">
-        <v>4.251130887200638e-05</v>
+        <v>1.002368524727348e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>5.351493471072528</v>
+        <v>5.345348602065338</v>
       </c>
       <c r="N5" t="n">
-        <v>61.09322205978455</v>
+        <v>60.87297000858139</v>
       </c>
       <c r="O5" t="n">
-        <v>7.816215328391648</v>
+        <v>7.802113175837774</v>
       </c>
       <c r="P5" t="n">
-        <v>372.0241402951688</v>
+        <v>372.0617653658627</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19643,28 +19741,28 @@
         <v>0.0564</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002432642770920247</v>
+        <v>0.003858477054205973</v>
       </c>
       <c r="J6" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K6" t="n">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L6" t="n">
-        <v>3.953936130396407e-06</v>
+        <v>1.006617995447101e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>6.664797763334203</v>
+        <v>6.634230081819227</v>
       </c>
       <c r="N6" t="n">
-        <v>78.37147626873126</v>
+        <v>77.94298379676057</v>
       </c>
       <c r="O6" t="n">
-        <v>8.852766588402252</v>
+        <v>8.828532369355655</v>
       </c>
       <c r="P6" t="n">
-        <v>381.0526048000023</v>
+        <v>381.0380595168187</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19721,28 +19819,28 @@
         <v>0.0829</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0129009652460281</v>
+        <v>-0.0103390029632921</v>
       </c>
       <c r="J7" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K7" t="n">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002336474649449194</v>
+        <v>0.0001518702871343702</v>
       </c>
       <c r="M7" t="n">
-        <v>4.594572583919852</v>
+        <v>4.579743573167027</v>
       </c>
       <c r="N7" t="n">
-        <v>37.94146011486756</v>
+        <v>37.75875736402386</v>
       </c>
       <c r="O7" t="n">
-        <v>6.159663961196873</v>
+        <v>6.144815486572714</v>
       </c>
       <c r="P7" t="n">
-        <v>381.1973367295747</v>
+        <v>381.1718959562802</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19799,28 +19897,28 @@
         <v>0.0953</v>
       </c>
       <c r="I8" t="n">
-        <v>0.02491724293424927</v>
+        <v>0.0263791589184486</v>
       </c>
       <c r="J8" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K8" t="n">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0009783182803771995</v>
+        <v>0.001110551466042997</v>
       </c>
       <c r="M8" t="n">
-        <v>4.509823656391747</v>
+        <v>4.490786389028204</v>
       </c>
       <c r="N8" t="n">
-        <v>34.4748025490495</v>
+        <v>34.2867047570684</v>
       </c>
       <c r="O8" t="n">
-        <v>5.871524720977465</v>
+        <v>5.855485014673712</v>
       </c>
       <c r="P8" t="n">
-        <v>380.0679211032428</v>
+        <v>380.0536267709663</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19877,28 +19975,28 @@
         <v>0.1606</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06352486253645297</v>
+        <v>0.06598019959822256</v>
       </c>
       <c r="J9" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K9" t="n">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L9" t="n">
-        <v>0.00721645421750039</v>
+        <v>0.007870809212356833</v>
       </c>
       <c r="M9" t="n">
-        <v>4.027376586660512</v>
+        <v>4.01759398645073</v>
       </c>
       <c r="N9" t="n">
-        <v>30.27497151371614</v>
+        <v>30.14786527720684</v>
       </c>
       <c r="O9" t="n">
-        <v>5.502269669301582</v>
+        <v>5.490707174600266</v>
       </c>
       <c r="P9" t="n">
-        <v>377.980403489392</v>
+        <v>377.9564878514231</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -19955,28 +20053,28 @@
         <v>0.1069</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.01238487549843027</v>
+        <v>-0.01504527729099476</v>
       </c>
       <c r="J10" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K10" t="n">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0002275240323862393</v>
+        <v>0.0003398800738518837</v>
       </c>
       <c r="M10" t="n">
-        <v>4.597407002017044</v>
+        <v>4.581256103493586</v>
       </c>
       <c r="N10" t="n">
-        <v>36.07342007366588</v>
+        <v>35.90305735855827</v>
       </c>
       <c r="O10" t="n">
-        <v>6.00611522314265</v>
+        <v>5.991916000626032</v>
       </c>
       <c r="P10" t="n">
-        <v>385.6412520592547</v>
+        <v>385.6675763298756</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20014,7 +20112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K401"/>
+  <dimension ref="A1:K403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40603,6 +40701,120 @@
         </is>
       </c>
     </row>
+    <row r="402">
+      <c r="A402" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-02 22:05:57+00:00</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>-36.74564469451043,175.16846182937036</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>-36.74632744365684,175.16873692925785</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>-36.74701016822321,175.16896905147547</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>-36.747685142682165,175.1691381839192</t>
+        </is>
+      </c>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>-36.74832757664865,175.16944222250427</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>-36.74889971525004,175.16990306366822</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>-36.74947842102672,175.1703893790916</t>
+        </is>
+      </c>
+      <c r="I402" t="inlineStr">
+        <is>
+          <t>-36.7499602959072,175.1710293121492</t>
+        </is>
+      </c>
+      <c r="J402" t="inlineStr">
+        <is>
+          <t>-36.750477575875436,175.17165041359033</t>
+        </is>
+      </c>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>-36.745638185019175,175.16855556541725</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>-36.74633524012068,175.1686665265727</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>-36.747015622662495,175.1689401347633</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>-36.74770412665579,175.16905397808034</t>
+        </is>
+      </c>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>-36.74832134040496,175.16945997565105</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>-36.74891130843788,175.16988212324858</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>-36.74946237392551,175.17041206922744</t>
+        </is>
+      </c>
+      <c r="I403" t="inlineStr">
+        <is>
+          <t>-36.749989279742,175.1709943793319</t>
+        </is>
+      </c>
+      <c r="J403" t="inlineStr">
+        <is>
+          <t>-36.75045210243769,175.1716803334866</t>
+        </is>
+      </c>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0163/nzd0163.xlsx
+++ b/data/nzd0163/nzd0163.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K403"/>
+  <dimension ref="A1:K404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15028,6 +15028,45 @@
         <v>385.12</v>
       </c>
       <c r="K403" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="n">
+        <v>367.5664705882353</v>
+      </c>
+      <c r="C404" t="n">
+        <v>371.7964705882353</v>
+      </c>
+      <c r="D404" t="n">
+        <v>374.2322580645161</v>
+      </c>
+      <c r="E404" t="n">
+        <v>372.82</v>
+      </c>
+      <c r="F404" t="n">
+        <v>394.6418181818182</v>
+      </c>
+      <c r="G404" t="n">
+        <v>387.54</v>
+      </c>
+      <c r="H404" t="n">
+        <v>386.3866666666667</v>
+      </c>
+      <c r="I404" t="n">
+        <v>380.2593103448276</v>
+      </c>
+      <c r="J404" t="n">
+        <v>388.45</v>
+      </c>
+      <c r="K404" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -15044,7 +15083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B421"/>
+  <dimension ref="A1:B422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19262,6 +19301,16 @@
       </c>
       <c r="B421" t="n">
         <v>0.51</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B422" t="n">
+        <v>0.78</v>
       </c>
     </row>
   </sheetData>
@@ -19429,28 +19478,28 @@
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
-        <v>-0.02542316461937416</v>
+        <v>-0.02223100487303242</v>
       </c>
       <c r="J2" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K2" t="n">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004807304917695543</v>
+        <v>0.0003694703792985754</v>
       </c>
       <c r="M2" t="n">
-        <v>6.25469469011522</v>
+        <v>6.251341804878779</v>
       </c>
       <c r="N2" t="n">
-        <v>70.40646309059568</v>
+        <v>70.28213286119959</v>
       </c>
       <c r="O2" t="n">
-        <v>8.390855921215408</v>
+        <v>8.383443973761594</v>
       </c>
       <c r="P2" t="n">
-        <v>362.8374567433395</v>
+        <v>362.8042013906327</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -19507,28 +19556,28 @@
         <v>0.0919</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.05471640847677627</v>
+        <v>-0.05266842112956823</v>
       </c>
       <c r="J3" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K3" t="n">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003677031489158988</v>
+        <v>0.003425702629124672</v>
       </c>
       <c r="M3" t="n">
-        <v>4.651963707437918</v>
+        <v>4.648945523018667</v>
       </c>
       <c r="N3" t="n">
-        <v>43.85398334431542</v>
+        <v>43.76553841102512</v>
       </c>
       <c r="O3" t="n">
-        <v>6.622234014614359</v>
+        <v>6.61555276685366</v>
       </c>
       <c r="P3" t="n">
-        <v>369.5931357191759</v>
+        <v>369.5724181882624</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -19585,28 +19634,28 @@
         <v>0.1742</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.01919960238873812</v>
+        <v>-0.02124796566507793</v>
       </c>
       <c r="J4" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K4" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0006122349837024421</v>
+        <v>0.0007537281657293837</v>
       </c>
       <c r="M4" t="n">
-        <v>4.325278781692994</v>
+        <v>4.323305316481965</v>
       </c>
       <c r="N4" t="n">
-        <v>32.63083421478123</v>
+        <v>32.56953624635963</v>
       </c>
       <c r="O4" t="n">
-        <v>5.712340519855345</v>
+        <v>5.706972599054565</v>
       </c>
       <c r="P4" t="n">
-        <v>378.2058436532436</v>
+        <v>378.2264260285539</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -19663,28 +19712,28 @@
         <v>0.1393</v>
       </c>
       <c r="I5" t="n">
-        <v>0.003431249991163401</v>
+        <v>0.003841765545602907</v>
       </c>
       <c r="J5" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K5" t="n">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L5" t="n">
-        <v>1.002368524727348e-05</v>
+        <v>1.264896630426282e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>5.345348602065338</v>
+        <v>5.331183438909129</v>
       </c>
       <c r="N5" t="n">
-        <v>60.87297000858139</v>
+        <v>60.69365501160829</v>
       </c>
       <c r="O5" t="n">
-        <v>7.802113175837774</v>
+        <v>7.79061326287015</v>
       </c>
       <c r="P5" t="n">
-        <v>372.0617653658627</v>
+        <v>372.0575369392768</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -19741,28 +19790,28 @@
         <v>0.0564</v>
       </c>
       <c r="I6" t="n">
-        <v>0.003858477054205973</v>
+        <v>0.01151293953856655</v>
       </c>
       <c r="J6" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K6" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L6" t="n">
-        <v>1.006617995447101e-05</v>
+        <v>8.957464890579914e-05</v>
       </c>
       <c r="M6" t="n">
-        <v>6.634230081819227</v>
+        <v>6.652684567941389</v>
       </c>
       <c r="N6" t="n">
-        <v>77.94298379676057</v>
+        <v>78.23173756298964</v>
       </c>
       <c r="O6" t="n">
-        <v>8.828532369355655</v>
+        <v>8.844870692270726</v>
       </c>
       <c r="P6" t="n">
-        <v>381.0380595168187</v>
+        <v>380.959493183019</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -19819,28 +19868,28 @@
         <v>0.0829</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.0103390029632921</v>
+        <v>-0.006467464241499032</v>
       </c>
       <c r="J7" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K7" t="n">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0001518702871343702</v>
+        <v>5.961991927205812e-05</v>
       </c>
       <c r="M7" t="n">
-        <v>4.579743573167027</v>
+        <v>4.583904755918077</v>
       </c>
       <c r="N7" t="n">
-        <v>37.75875736402386</v>
+        <v>37.77551854724931</v>
       </c>
       <c r="O7" t="n">
-        <v>6.144815486572714</v>
+        <v>6.146179182813442</v>
       </c>
       <c r="P7" t="n">
-        <v>381.1718959562802</v>
+        <v>381.133194566463</v>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
@@ -19897,28 +19946,28 @@
         <v>0.0953</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0263791589184486</v>
+        <v>0.02980390382289701</v>
       </c>
       <c r="J8" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K8" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001110551466042997</v>
+        <v>0.001422863577153932</v>
       </c>
       <c r="M8" t="n">
-        <v>4.490786389028204</v>
+        <v>4.49411590495162</v>
       </c>
       <c r="N8" t="n">
-        <v>34.2867047570684</v>
+        <v>34.27867584232807</v>
       </c>
       <c r="O8" t="n">
-        <v>5.855485014673712</v>
+        <v>5.854799385318686</v>
       </c>
       <c r="P8" t="n">
-        <v>380.0536267709663</v>
+        <v>380.0199409218106</v>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr">
@@ -19975,28 +20024,28 @@
         <v>0.1606</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06598019959822256</v>
+        <v>0.06633924437711675</v>
       </c>
       <c r="J9" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K9" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L9" t="n">
-        <v>0.007870809212356833</v>
+        <v>0.008009257261261338</v>
       </c>
       <c r="M9" t="n">
-        <v>4.01759398645073</v>
+        <v>4.007479478740907</v>
       </c>
       <c r="N9" t="n">
-        <v>30.14786527720684</v>
+        <v>30.05865064916202</v>
       </c>
       <c r="O9" t="n">
-        <v>5.490707174600266</v>
+        <v>5.482577008046674</v>
       </c>
       <c r="P9" t="n">
-        <v>377.9564878514231</v>
+        <v>377.9529658392428</v>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr">
@@ -20053,28 +20102,28 @@
         <v>0.1069</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.01504527729099476</v>
+        <v>-0.01307267159412377</v>
       </c>
       <c r="J10" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="K10" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003398800738518837</v>
+        <v>0.000258174117141019</v>
       </c>
       <c r="M10" t="n">
-        <v>4.581256103493586</v>
+        <v>4.577673186386338</v>
       </c>
       <c r="N10" t="n">
-        <v>35.90305735855827</v>
+        <v>35.82372540370984</v>
       </c>
       <c r="O10" t="n">
-        <v>5.991916000626032</v>
+        <v>5.985292424243768</v>
       </c>
       <c r="P10" t="n">
-        <v>385.6675763298756</v>
+        <v>385.6479229806696</v>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
@@ -20112,7 +20161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K403"/>
+  <dimension ref="A1:K404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40815,6 +40864,63 @@
         </is>
       </c>
     </row>
+    <row r="404">
+      <c r="A404" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-27 22:06:18+00:00</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>-36.74563210654173,175.16864309393506</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>-36.74632578609007,175.16875189716674</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>-36.7470177572083,175.1689288184566</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>-36.74768584759387,175.1691350571987</t>
+        </is>
+      </c>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>-36.74828024929541,175.16957695230118</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>-36.74888268296111,175.16993382854622</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>-36.74944381532894,175.17043831052587</t>
+        </is>
+      </c>
+      <c r="I404" t="inlineStr">
+        <is>
+          <t>-36.749983833146,175.1710009438541</t>
+        </is>
+      </c>
+      <c r="J404" t="inlineStr">
+        <is>
+          <t>-36.75043029612167,175.17170594613276</t>
+        </is>
+      </c>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0163/nzd0163.xlsx
+++ b/data/nzd0163/nzd0163.xlsx
@@ -19474,9 +19474,15 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="F2" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1072</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.1581</v>
+      </c>
       <c r="I2" t="n">
         <v>-0.02228737364560048</v>
       </c>
@@ -19547,13 +19553,13 @@
         <v>0.1234501805697224</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08500000000000001</v>
+        <v>0.115</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08160000000000001</v>
+        <v>0.1005</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0919</v>
+        <v>0.1394</v>
       </c>
       <c r="I3" t="n">
         <v>-0.05270230930228929</v>
@@ -19628,10 +19634,10 @@
         <v>0.155</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1387</v>
+        <v>0.1318</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1742</v>
+        <v>0.1894</v>
       </c>
       <c r="I4" t="n">
         <v>-0.02123890244860325</v>
@@ -19703,13 +19709,13 @@
         <v>0.3707867929698315</v>
       </c>
       <c r="F5" t="n">
-        <v>0.125</v>
+        <v>0.095</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1103</v>
+        <v>0.0873</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1393</v>
+        <v>0.105</v>
       </c>
       <c r="I5" t="n">
         <v>0.003841765545603028</v>
@@ -19781,13 +19787,13 @@
         <v>0.4954651204637625</v>
       </c>
       <c r="F6" t="n">
-        <v>0.055</v>
+        <v>0.09</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0539</v>
+        <v>0.0808</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0564</v>
+        <v>0.1041</v>
       </c>
       <c r="I6" t="n">
         <v>0.01148077226587553</v>
@@ -19859,13 +19865,13 @@
         <v>0.6215159243575233</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08</v>
+        <v>0.14</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07389999999999999</v>
+        <v>0.1123</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0829</v>
+        <v>0.186</v>
       </c>
       <c r="I7" t="n">
         <v>-0.006441629322106249</v>
@@ -19937,13 +19943,13 @@
         <v>0.7477496944740633</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09</v>
+        <v>0.115</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0833</v>
+        <v>0.0953</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0953</v>
+        <v>0.1407</v>
       </c>
       <c r="I8" t="n">
         <v>0.02982204283040529</v>
@@ -20015,13 +20021,13 @@
         <v>0.8737662298795525</v>
       </c>
       <c r="F9" t="n">
-        <v>0.145</v>
+        <v>0.185</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1328</v>
+        <v>0.1528</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1606</v>
+        <v>0.2</v>
       </c>
       <c r="I9" t="n">
         <v>0.06637548075823423</v>
@@ -20093,13 +20099,13 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0948</v>
+        <v>0.1326</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1069</v>
+        <v>0.2</v>
       </c>
       <c r="I10" t="n">
         <v>-0.01307267159412381</v>

--- a/data/nzd0163/nzd0163.xlsx
+++ b/data/nzd0163/nzd0163.xlsx
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>361.33</v>
+        <v>361.35</v>
       </c>
       <c r="C2" t="n">
         <v>369.91</v>
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>366.63</v>
+        <v>366.85</v>
       </c>
       <c r="C4" t="n">
         <v>365.8</v>
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>369.45</v>
+        <v>369.25</v>
       </c>
       <c r="C5" t="n">
         <v>371.52</v>
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>354.48</v>
+        <v>354.46</v>
       </c>
       <c r="C6" t="n">
         <v>374.24</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>358.77</v>
+        <v>358.94</v>
       </c>
       <c r="C7" t="n">
         <v>372.54</v>
@@ -761,7 +761,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>369.17</v>
+        <v>369.37</v>
       </c>
       <c r="C9" t="n">
         <v>365.15</v>
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>360.59</v>
+        <v>360.5</v>
       </c>
       <c r="C10" t="n">
         <v>372.54</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>357.31</v>
+        <v>357.29</v>
       </c>
       <c r="C11" t="n">
         <v>370.17</v>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>357.55</v>
+        <v>357.58</v>
       </c>
       <c r="C12" t="n">
         <v>376.88</v>
@@ -915,7 +915,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>356.7</v>
+        <v>356.88</v>
       </c>
       <c r="C13" t="n">
         <v>366.29</v>
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>359.25</v>
+        <v>359.38</v>
       </c>
       <c r="C14" t="n">
         <v>363.34</v>
@@ -993,7 +993,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>359.63</v>
+        <v>359.47</v>
       </c>
       <c r="C15" t="n">
         <v>370.96</v>
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>361.54</v>
+        <v>361.33</v>
       </c>
       <c r="C16" t="n">
         <v>368.84</v>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>359.05</v>
+        <v>359.37</v>
       </c>
       <c r="C18" t="n">
         <v>357.03</v>
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>369.58</v>
+        <v>369.84</v>
       </c>
       <c r="C20" t="n">
         <v>378.07</v>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>361.88</v>
+        <v>361.7</v>
       </c>
       <c r="C21" t="n">
         <v>371.21</v>
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>364.28</v>
+        <v>364.39</v>
       </c>
       <c r="C22" t="n">
         <v>362.16</v>
@@ -1301,7 +1301,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>365.25</v>
+        <v>365.47</v>
       </c>
       <c r="C23" t="n">
         <v>363.62</v>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>360.59</v>
+        <v>360.68</v>
       </c>
       <c r="C24" t="n">
         <v>371.32</v>
@@ -1379,7 +1379,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>363.33</v>
+        <v>363.15</v>
       </c>
       <c r="C25" t="n">
         <v>370.16</v>
@@ -1418,7 +1418,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>366.38</v>
+        <v>366.19</v>
       </c>
       <c r="C26" t="n">
         <v>373.29</v>
@@ -1457,7 +1457,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>364.57</v>
+        <v>364.44</v>
       </c>
       <c r="C27" t="n">
         <v>376.76</v>
@@ -1494,7 +1494,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>371.72</v>
+        <v>371.47</v>
       </c>
       <c r="C28" t="n">
         <v>378.08</v>
@@ -1558,7 +1558,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>360.03</v>
+        <v>360.41</v>
       </c>
       <c r="C30" t="n">
         <v>368.29</v>
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>373.6</v>
+        <v>373.43</v>
       </c>
       <c r="C32" t="n">
         <v>370.89</v>
@@ -1667,7 +1667,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>375.6</v>
+        <v>375.37</v>
       </c>
       <c r="C33" t="n">
         <v>372.73</v>
@@ -1737,7 +1737,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>361.13</v>
+        <v>361.52</v>
       </c>
       <c r="C35" t="n">
         <v>361.85</v>
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>354.11</v>
+        <v>353.94</v>
       </c>
       <c r="C36" t="n">
         <v>364.12</v>
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>367.66</v>
+        <v>367.44</v>
       </c>
       <c r="C38" t="n">
         <v>371.75</v>
@@ -1887,7 +1887,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>363.33</v>
+        <v>363.16</v>
       </c>
       <c r="C39" t="n">
         <v>371.73</v>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>359.89</v>
+        <v>359.9</v>
       </c>
       <c r="C40" t="n">
         <v>380.19</v>
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>359.48</v>
+        <v>359.52</v>
       </c>
       <c r="C41" t="n">
         <v>369.34</v>
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>364.58</v>
+        <v>364.78</v>
       </c>
       <c r="C42" t="n">
         <v>379.24</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>356.03</v>
+        <v>356.4</v>
       </c>
       <c r="C44" t="n">
         <v>367.51</v>
@@ -2119,7 +2119,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>362.78</v>
+        <v>363.01</v>
       </c>
       <c r="C45" t="n">
         <v>363.84</v>
@@ -2156,7 +2156,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>349.21</v>
+        <v>349.39</v>
       </c>
       <c r="C46" t="n">
         <v>371.09</v>
@@ -2195,7 +2195,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>368.31</v>
+        <v>368.46</v>
       </c>
       <c r="C47" t="n">
         <v>375.11</v>
@@ -2234,7 +2234,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>360.75</v>
+        <v>360.63</v>
       </c>
       <c r="C48" t="n">
         <v>375.8</v>
@@ -2273,7 +2273,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>362.86</v>
+        <v>362.98</v>
       </c>
       <c r="C49" t="n">
         <v>361.12</v>
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>368.36</v>
+        <v>368.17</v>
       </c>
       <c r="C50" t="n">
         <v>371.4</v>
@@ -2351,7 +2351,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>366.92</v>
+        <v>366.69</v>
       </c>
       <c r="C51" t="n">
         <v>370.68</v>
@@ -2390,7 +2390,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>365.84</v>
+        <v>365.53</v>
       </c>
       <c r="C52" t="n">
         <v>368.51</v>
@@ -2429,7 +2429,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>366.07</v>
+        <v>366.12</v>
       </c>
       <c r="C53" t="n">
         <v>369.07</v>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>365.53</v>
+        <v>365.5</v>
       </c>
       <c r="C56" t="n">
         <v>372.81</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>374</v>
+        <v>373.93</v>
       </c>
       <c r="C57" t="n">
         <v>375.47</v>
@@ -2678,7 +2678,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>361.38</v>
+        <v>361.2</v>
       </c>
       <c r="C60" t="n">
         <v>368.82</v>
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>362.14</v>
+        <v>362.36</v>
       </c>
       <c r="C61" t="n">
         <v>371.87</v>
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>353.33</v>
+        <v>353.34</v>
       </c>
       <c r="C62" t="n">
         <v>365.6</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>373.65</v>
+        <v>373.85</v>
       </c>
       <c r="C63" t="n">
         <v>375.82</v>
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>366.46</v>
+        <v>366.86</v>
       </c>
       <c r="C66" t="n">
         <v>370.68</v>
@@ -2935,7 +2935,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>344.04</v>
+        <v>344.37</v>
       </c>
       <c r="C67" t="n">
         <v>357.13</v>
@@ -2966,7 +2966,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>365.34</v>
+        <v>365.64</v>
       </c>
       <c r="C68" t="n">
         <v>359.96</v>
@@ -3005,7 +3005,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>355.7</v>
+        <v>355.54</v>
       </c>
       <c r="C69" t="n">
         <v>364.36</v>
@@ -3044,7 +3044,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>364.66</v>
+        <v>364.69</v>
       </c>
       <c r="C70" t="n">
         <v>368.08</v>
@@ -3083,7 +3083,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>362</v>
+        <v>361.78</v>
       </c>
       <c r="C71" t="n">
         <v>365.93</v>
@@ -3151,7 +3151,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>366.87</v>
+        <v>366.86</v>
       </c>
       <c r="C73" t="n">
         <v>368.71</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>368.8</v>
+        <v>368.99</v>
       </c>
       <c r="C74" t="n">
         <v>370.77</v>
@@ -3219,7 +3219,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>365.13</v>
+        <v>365.52</v>
       </c>
       <c r="C75" t="n">
         <v>365.34</v>
@@ -3250,7 +3250,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>358.37</v>
+        <v>358.15</v>
       </c>
       <c r="C76" t="n">
         <v>368.27</v>
@@ -3289,7 +3289,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>361.2</v>
+        <v>361.48</v>
       </c>
       <c r="C77" t="n">
         <v>363.35</v>
@@ -3324,7 +3324,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>358.94</v>
+        <v>359.18</v>
       </c>
       <c r="C78" t="n">
         <v>365.51</v>
@@ -3363,7 +3363,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>358.75</v>
+        <v>358.96</v>
       </c>
       <c r="C79" t="n">
         <v>374.69</v>
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>361.88</v>
+        <v>362.21</v>
       </c>
       <c r="C80" t="n">
         <v>375.1</v>
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>363</v>
+        <v>362.9</v>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>369.13</v>
+        <v>368.79</v>
       </c>
       <c r="C85" t="n">
         <v>369.73</v>
@@ -3618,7 +3618,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>364.53</v>
+        <v>364.87</v>
       </c>
       <c r="C86" t="n">
         <v>362.67</v>
@@ -3657,7 +3657,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>371.84</v>
+        <v>371.64</v>
       </c>
       <c r="C87" t="n">
         <v>369.49</v>
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>367.49</v>
+        <v>367.48</v>
       </c>
       <c r="C88" t="n">
         <v>362.51</v>
@@ -3731,7 +3731,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>367.92</v>
+        <v>367.93</v>
       </c>
       <c r="C89" t="n">
         <v>363.43</v>
@@ -3764,7 +3764,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>363.28</v>
+        <v>363.65</v>
       </c>
       <c r="C90" t="n">
         <v>364.72</v>
@@ -3799,7 +3799,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>359.49</v>
+        <v>359.74</v>
       </c>
       <c r="C91" t="n">
         <v>365.79</v>
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>357.02</v>
+        <v>357.21</v>
       </c>
       <c r="C92" t="n">
         <v>368.6</v>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>364.47</v>
+        <v>364.59</v>
       </c>
       <c r="C94" t="n">
         <v>371.2</v>
@@ -3945,7 +3945,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>358.64</v>
+        <v>358.61</v>
       </c>
       <c r="C95" t="n">
         <v>358.53</v>
@@ -3978,7 +3978,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>366.52</v>
+        <v>366.73</v>
       </c>
       <c r="C96" t="n">
         <v>367.91</v>
@@ -4017,7 +4017,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>366.26</v>
+        <v>366.68</v>
       </c>
       <c r="C97" t="n">
         <v>364.22</v>
@@ -4054,7 +4054,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>368.41</v>
+        <v>368.73</v>
       </c>
       <c r="C98" t="n">
         <v>365.79</v>
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>359.46</v>
+        <v>359.31</v>
       </c>
       <c r="C100" t="n">
         <v>360.56</v>
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>351.37</v>
+        <v>351.71</v>
       </c>
       <c r="C102" t="n">
         <v>365.77</v>
@@ -4262,7 +4262,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>354.68</v>
+        <v>354.86</v>
       </c>
       <c r="C104" t="n">
         <v>363.13</v>
@@ -4295,7 +4295,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>362.49</v>
+        <v>362.45</v>
       </c>
       <c r="C105" t="n">
         <v>361.41</v>
@@ -4334,7 +4334,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>357.67</v>
+        <v>357.69</v>
       </c>
       <c r="C106" t="n">
         <v>368.76</v>
@@ -4373,7 +4373,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>371.35</v>
+        <v>371.3</v>
       </c>
       <c r="C107" t="n">
         <v>371.8</v>
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>349.94</v>
+        <v>349.97</v>
       </c>
       <c r="C108" t="n">
         <v>375.2</v>
@@ -4445,7 +4445,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>356.36</v>
+        <v>356.32</v>
       </c>
       <c r="C109" t="n">
         <v>365.21</v>
@@ -4480,7 +4480,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>362.4</v>
+        <v>362.22</v>
       </c>
       <c r="C110" t="n">
         <v>372.24</v>
@@ -4552,7 +4552,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>363.06</v>
+        <v>362.7</v>
       </c>
       <c r="C112" t="n">
         <v>367.3</v>
@@ -4591,7 +4591,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>367.94</v>
+        <v>367.81</v>
       </c>
       <c r="C113" t="n">
         <v>372.54</v>
@@ -4661,7 +4661,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>369.17</v>
+        <v>369.12</v>
       </c>
       <c r="C115" t="n">
         <v>374</v>
@@ -4700,7 +4700,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>369.37</v>
+        <v>369.17</v>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
@@ -4731,7 +4731,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>365.91</v>
+        <v>365.72</v>
       </c>
       <c r="C117" t="n">
         <v>371.53</v>
@@ -4766,7 +4766,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>355.24</v>
+        <v>355.2</v>
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
@@ -4832,7 +4832,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>345.55</v>
+        <v>345.84</v>
       </c>
       <c r="C120" t="n">
         <v>367.61</v>
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>360.23</v>
+        <v>360.49</v>
       </c>
       <c r="C121" t="n">
         <v>375.75</v>
@@ -4908,7 +4908,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>375.61</v>
+        <v>375.26</v>
       </c>
       <c r="C122" t="n">
         <v>372.4</v>
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>361.71</v>
+        <v>362</v>
       </c>
       <c r="C124" t="n">
         <v>362.31</v>
@@ -5005,7 +5005,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>361.33</v>
+        <v>361.25</v>
       </c>
       <c r="C125" t="n">
         <v>357.69</v>
@@ -5044,7 +5044,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>361.22</v>
+        <v>361.01</v>
       </c>
       <c r="C126" t="n">
         <v>368.65</v>
@@ -5083,7 +5083,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>358.49</v>
+        <v>358.46</v>
       </c>
       <c r="C127" t="n">
         <v>364.99</v>
@@ -5122,7 +5122,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>361.16</v>
+        <v>361.11</v>
       </c>
       <c r="C128" t="n">
         <v>373.33</v>
@@ -5161,7 +5161,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>336.38</v>
+        <v>336.76</v>
       </c>
       <c r="C129" t="n">
         <v>345.75</v>
@@ -5198,7 +5198,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>353.82</v>
+        <v>353.58</v>
       </c>
       <c r="C130" t="n">
         <v>363.34</v>
@@ -5231,7 +5231,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>352.38</v>
+        <v>352.23</v>
       </c>
       <c r="C131" t="n">
         <v>367.66</v>
@@ -5264,7 +5264,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>360.85</v>
+        <v>360.98</v>
       </c>
       <c r="C132" t="n">
         <v>377.06</v>
@@ -5369,7 +5369,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>363.68</v>
+        <v>363.33</v>
       </c>
       <c r="C135" t="n">
         <v>370.33</v>
@@ -5441,7 +5441,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>354.77</v>
+        <v>355.09</v>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr"/>
@@ -5476,7 +5476,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>361.93</v>
+        <v>362.26</v>
       </c>
       <c r="C138" t="n">
         <v>368.08</v>
@@ -5507,7 +5507,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>360.52</v>
+        <v>360.23</v>
       </c>
       <c r="C139" t="n">
         <v>364.64</v>
@@ -5538,7 +5538,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>363.8</v>
+        <v>363.68</v>
       </c>
       <c r="C140" t="n">
         <v>368.83</v>
@@ -5577,7 +5577,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>365.7</v>
+        <v>365.61</v>
       </c>
       <c r="C141" t="n">
         <v>370.39</v>
@@ -5610,7 +5610,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>371.15</v>
+        <v>371.3</v>
       </c>
       <c r="C142" t="n">
         <v>378.65</v>
@@ -5645,7 +5645,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>360.82</v>
+        <v>361.01</v>
       </c>
       <c r="C143" t="n">
         <v>364.56</v>
@@ -5684,7 +5684,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>356.13</v>
+        <v>355.94</v>
       </c>
       <c r="C144" t="n">
         <v>369.77</v>
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>360.28</v>
+        <v>360.22</v>
       </c>
       <c r="C145" t="n">
         <v>373.43</v>
@@ -5791,7 +5791,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>349.34</v>
+        <v>349.3</v>
       </c>
       <c r="C147" t="n">
         <v>361.32</v>
@@ -5828,7 +5828,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>360.41</v>
+        <v>360.04</v>
       </c>
       <c r="C148" t="n">
         <v>365.91</v>
@@ -5867,7 +5867,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>361.94</v>
+        <v>361.7</v>
       </c>
       <c r="C149" t="n">
         <v>367.3</v>
@@ -5906,7 +5906,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>360.71</v>
+        <v>361.05</v>
       </c>
       <c r="C150" t="n">
         <v>361.82</v>
@@ -5945,7 +5945,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>364.74</v>
+        <v>365.09</v>
       </c>
       <c r="C151" t="n">
         <v>364.41</v>
@@ -5984,7 +5984,7 @@
         </is>
       </c>
       <c r="B152" t="n">
-        <v>364.31</v>
+        <v>364.21</v>
       </c>
       <c r="C152" t="n">
         <v>367.4</v>
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>367.79</v>
+        <v>367.81</v>
       </c>
       <c r="C153" t="n">
         <v>361.07</v>
@@ -6097,7 +6097,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>362.3</v>
+        <v>362.1</v>
       </c>
       <c r="C155" t="n">
         <v>370.71</v>
@@ -6136,7 +6136,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>356.71</v>
+        <v>357.04</v>
       </c>
       <c r="C156" t="n">
         <v>358.2</v>
@@ -6169,7 +6169,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>366.67</v>
+        <v>367.05</v>
       </c>
       <c r="C157" t="n">
         <v>369.43</v>
@@ -6208,7 +6208,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>369.66</v>
+        <v>369.71</v>
       </c>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="inlineStr"/>
@@ -6270,7 +6270,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>359.97</v>
+        <v>360.18</v>
       </c>
       <c r="C160" t="n">
         <v>371.96</v>
@@ -6309,7 +6309,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>359.07</v>
+        <v>358.89</v>
       </c>
       <c r="C161" t="n">
         <v>369.18</v>
@@ -6348,7 +6348,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>358.44</v>
+        <v>358.55</v>
       </c>
       <c r="C162" t="n">
         <v>370.6</v>
@@ -6387,7 +6387,7 @@
         </is>
       </c>
       <c r="B163" t="n">
-        <v>355.9</v>
+        <v>355.85</v>
       </c>
       <c r="C163" t="n">
         <v>367.87</v>
@@ -6426,7 +6426,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>353.22</v>
+        <v>352.94</v>
       </c>
       <c r="C164" t="n">
         <v>363.32</v>
@@ -6490,7 +6490,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>362.74</v>
+        <v>363.04</v>
       </c>
       <c r="C166" t="n">
         <v>366.39</v>
@@ -6529,7 +6529,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>369.54</v>
+        <v>369.58</v>
       </c>
       <c r="C167" t="n">
         <v>373.97</v>
@@ -6601,7 +6601,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>371.27</v>
+        <v>371.55</v>
       </c>
       <c r="C169" t="n">
         <v>375.08</v>
@@ -6640,7 +6640,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>368.13</v>
+        <v>368.46</v>
       </c>
       <c r="C170" t="n">
         <v>367.74</v>
@@ -6679,7 +6679,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>374.05</v>
+        <v>373.73</v>
       </c>
       <c r="C171" t="n">
         <v>370.63</v>
@@ -6718,7 +6718,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>365.1</v>
+        <v>365.52</v>
       </c>
       <c r="C172" t="n">
         <v>366.67</v>
@@ -6757,7 +6757,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>364.02</v>
+        <v>363.93</v>
       </c>
       <c r="C173" t="n">
         <v>371.3</v>
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>364.74</v>
+        <v>364.67</v>
       </c>
       <c r="C174" t="n">
         <v>367.91</v>
@@ -6835,7 +6835,7 @@
         </is>
       </c>
       <c r="B175" t="n">
-        <v>369.51</v>
+        <v>369.28</v>
       </c>
       <c r="C175" t="n">
         <v>370.74</v>
@@ -6874,7 +6874,7 @@
         </is>
       </c>
       <c r="B176" t="n">
-        <v>358.48</v>
+        <v>358.18</v>
       </c>
       <c r="C176" t="n">
         <v>363.62</v>
@@ -6950,7 +6950,7 @@
         </is>
       </c>
       <c r="B178" t="n">
-        <v>361.44</v>
+        <v>361.25</v>
       </c>
       <c r="C178" t="n">
         <v>371.32</v>
@@ -7026,7 +7026,7 @@
         </is>
       </c>
       <c r="B180" t="n">
-        <v>358.59</v>
+        <v>358.38</v>
       </c>
       <c r="C180" t="n">
         <v>371.54</v>
@@ -7061,7 +7061,7 @@
         </is>
       </c>
       <c r="B181" t="n">
-        <v>343.4</v>
+        <v>343.7</v>
       </c>
       <c r="C181" t="n">
         <v>364.05</v>
@@ -7133,7 +7133,7 @@
         </is>
       </c>
       <c r="B183" t="n">
-        <v>334.8</v>
+        <v>334.59</v>
       </c>
       <c r="C183" t="n">
         <v>351.96</v>
@@ -7164,7 +7164,7 @@
         </is>
       </c>
       <c r="B184" t="n">
-        <v>363.17</v>
+        <v>363.31</v>
       </c>
       <c r="C184" t="n">
         <v>375.29</v>
@@ -7203,7 +7203,7 @@
         </is>
       </c>
       <c r="B185" t="n">
-        <v>353.27</v>
+        <v>353.22</v>
       </c>
       <c r="C185" t="n">
         <v>358.34</v>
@@ -7242,7 +7242,7 @@
         </is>
       </c>
       <c r="B186" t="n">
-        <v>355.53</v>
+        <v>355.66</v>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr"/>
@@ -7277,7 +7277,7 @@
         </is>
       </c>
       <c r="B187" t="n">
-        <v>360.6</v>
+        <v>360.53</v>
       </c>
       <c r="C187" t="n">
         <v>374.6</v>
@@ -7316,7 +7316,7 @@
         </is>
       </c>
       <c r="B188" t="n">
-        <v>364.37</v>
+        <v>364.67</v>
       </c>
       <c r="C188" t="n">
         <v>372.5</v>
@@ -7355,7 +7355,7 @@
         </is>
       </c>
       <c r="B189" t="n">
-        <v>366.74</v>
+        <v>366.4</v>
       </c>
       <c r="C189" t="n">
         <v>366.85</v>
@@ -7394,7 +7394,7 @@
         </is>
       </c>
       <c r="B190" t="n">
-        <v>371.95</v>
+        <v>372.23</v>
       </c>
       <c r="C190" t="n">
         <v>367.74</v>
@@ -7427,7 +7427,7 @@
         </is>
       </c>
       <c r="B191" t="n">
-        <v>359.47</v>
+        <v>359.28</v>
       </c>
       <c r="C191" t="n">
         <v>368.14</v>
@@ -7503,7 +7503,7 @@
         </is>
       </c>
       <c r="B193" t="n">
-        <v>368.1</v>
+        <v>368.5</v>
       </c>
       <c r="C193" t="n">
         <v>370.79</v>
@@ -7542,7 +7542,7 @@
         </is>
       </c>
       <c r="B194" t="n">
-        <v>363.98</v>
+        <v>363.86</v>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr"/>
@@ -7577,7 +7577,7 @@
         </is>
       </c>
       <c r="B195" t="n">
-        <v>368.77</v>
+        <v>368.95</v>
       </c>
       <c r="C195" t="n">
         <v>369.4</v>
@@ -7616,7 +7616,7 @@
         </is>
       </c>
       <c r="B196" t="n">
-        <v>356.27</v>
+        <v>356.23</v>
       </c>
       <c r="C196" t="n">
         <v>365.74</v>
@@ -7655,7 +7655,7 @@
         </is>
       </c>
       <c r="B197" t="n">
-        <v>352.35</v>
+        <v>352.66</v>
       </c>
       <c r="C197" t="n">
         <v>362.75</v>
@@ -7694,7 +7694,7 @@
         </is>
       </c>
       <c r="B198" t="n">
-        <v>366.29</v>
+        <v>365.99</v>
       </c>
       <c r="C198" t="n">
         <v>369.91</v>
@@ -7733,7 +7733,7 @@
         </is>
       </c>
       <c r="B199" t="n">
-        <v>362.58</v>
+        <v>362.97</v>
       </c>
       <c r="C199" t="n">
         <v>370.92</v>
@@ -7772,7 +7772,7 @@
         </is>
       </c>
       <c r="B200" t="n">
-        <v>355.6</v>
+        <v>355.61</v>
       </c>
       <c r="C200" t="n">
         <v>370.61</v>
@@ -7842,7 +7842,7 @@
         </is>
       </c>
       <c r="B202" t="n">
-        <v>357.4</v>
+        <v>357.12</v>
       </c>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="inlineStr"/>
@@ -7869,7 +7869,7 @@
         </is>
       </c>
       <c r="B203" t="n">
-        <v>383.35</v>
+        <v>383.14</v>
       </c>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="inlineStr"/>
@@ -7898,7 +7898,7 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>357.49</v>
+        <v>357.36</v>
       </c>
       <c r="C204" t="n">
         <v>368.21</v>
@@ -7931,7 +7931,7 @@
         </is>
       </c>
       <c r="B205" t="n">
-        <v>363.97</v>
+        <v>363.87</v>
       </c>
       <c r="C205" t="n">
         <v>373.52</v>
@@ -7970,7 +7970,7 @@
         </is>
       </c>
       <c r="B206" t="n">
-        <v>352.3</v>
+        <v>352.72</v>
       </c>
       <c r="C206" t="n">
         <v>362.73</v>
@@ -8009,7 +8009,7 @@
         </is>
       </c>
       <c r="B207" t="n">
-        <v>362.06</v>
+        <v>361.88</v>
       </c>
       <c r="C207" t="n">
         <v>369.75</v>
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="B209" t="n">
-        <v>364.23</v>
+        <v>364.1</v>
       </c>
       <c r="C209" t="n">
         <v>365.51</v>
@@ -8110,7 +8110,7 @@
         </is>
       </c>
       <c r="B210" t="n">
-        <v>368.11</v>
+        <v>368.13</v>
       </c>
       <c r="C210" t="n">
         <v>381.8</v>
@@ -8149,7 +8149,7 @@
         </is>
       </c>
       <c r="B211" t="n">
-        <v>358.06</v>
+        <v>358.37</v>
       </c>
       <c r="C211" t="n">
         <v>363.5</v>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="B212" t="n">
-        <v>364.25</v>
+        <v>363.96</v>
       </c>
       <c r="C212" t="n">
         <v>371.14</v>
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="B213" t="n">
-        <v>344.02</v>
+        <v>344.4</v>
       </c>
       <c r="C213" t="n">
         <v>364.17</v>
@@ -8260,7 +8260,7 @@
         </is>
       </c>
       <c r="B214" t="n">
-        <v>358.87</v>
+        <v>358.64</v>
       </c>
       <c r="C214" t="n">
         <v>368.03</v>
@@ -8299,7 +8299,7 @@
         </is>
       </c>
       <c r="B215" t="n">
-        <v>354.73</v>
+        <v>354.76</v>
       </c>
       <c r="C215" t="n">
         <v>378.1</v>
@@ -8330,7 +8330,7 @@
         </is>
       </c>
       <c r="B216" t="n">
-        <v>353.64</v>
+        <v>353.89</v>
       </c>
       <c r="C216" t="n">
         <v>366.18</v>
@@ -8367,7 +8367,7 @@
         </is>
       </c>
       <c r="B217" t="n">
-        <v>354.93</v>
+        <v>354.66</v>
       </c>
       <c r="C217" t="n">
         <v>372.06</v>
@@ -8400,7 +8400,7 @@
         </is>
       </c>
       <c r="B218" t="n">
-        <v>357.65</v>
+        <v>357.88</v>
       </c>
       <c r="C218" t="n">
         <v>366.17</v>
@@ -8439,7 +8439,7 @@
         </is>
       </c>
       <c r="B219" t="n">
-        <v>351.52</v>
+        <v>351.26</v>
       </c>
       <c r="C219" t="n">
         <v>365.21</v>
@@ -8624,7 +8624,7 @@
         </is>
       </c>
       <c r="B224" t="n">
-        <v>373.23</v>
+        <v>372.91</v>
       </c>
       <c r="C224" t="n">
         <v>370.25</v>
@@ -8663,7 +8663,7 @@
         </is>
       </c>
       <c r="B225" t="n">
-        <v>368.65</v>
+        <v>369</v>
       </c>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="inlineStr"/>
@@ -8698,7 +8698,7 @@
         </is>
       </c>
       <c r="B226" t="n">
-        <v>364.99</v>
+        <v>364.83</v>
       </c>
       <c r="C226" t="n">
         <v>371.14</v>
@@ -8737,7 +8737,7 @@
         </is>
       </c>
       <c r="B227" t="n">
-        <v>368</v>
+        <v>368.01</v>
       </c>
       <c r="C227" t="n">
         <v>373.88</v>
@@ -8776,7 +8776,7 @@
         </is>
       </c>
       <c r="B228" t="n">
-        <v>363.74</v>
+        <v>363.88</v>
       </c>
       <c r="C228" t="n">
         <v>362.86</v>
@@ -8811,7 +8811,7 @@
         </is>
       </c>
       <c r="B229" t="n">
-        <v>357.62</v>
+        <v>357.95</v>
       </c>
       <c r="C229" t="n">
         <v>356.28</v>
@@ -8850,7 +8850,7 @@
         </is>
       </c>
       <c r="B230" t="n">
-        <v>367.47</v>
+        <v>367.19</v>
       </c>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="inlineStr"/>
@@ -8873,7 +8873,7 @@
         </is>
       </c>
       <c r="B231" t="n">
-        <v>349.23</v>
+        <v>349.66</v>
       </c>
       <c r="C231" t="n">
         <v>355.43</v>
@@ -8912,7 +8912,7 @@
         </is>
       </c>
       <c r="B232" t="n">
-        <v>360.01</v>
+        <v>360.36</v>
       </c>
       <c r="C232" t="n">
         <v>362.25</v>
@@ -8951,7 +8951,7 @@
         </is>
       </c>
       <c r="B233" t="n">
-        <v>360.29</v>
+        <v>360.4</v>
       </c>
       <c r="C233" t="n">
         <v>361.58</v>
@@ -8990,7 +8990,7 @@
         </is>
       </c>
       <c r="B234" t="n">
-        <v>356.95</v>
+        <v>356.98</v>
       </c>
       <c r="C234" t="n">
         <v>359.23</v>
@@ -9029,7 +9029,7 @@
         </is>
       </c>
       <c r="B235" t="n">
-        <v>346.87</v>
+        <v>347.13</v>
       </c>
       <c r="C235" t="n">
         <v>361.47</v>
@@ -9068,7 +9068,7 @@
         </is>
       </c>
       <c r="B236" t="n">
-        <v>366.63</v>
+        <v>366.3</v>
       </c>
       <c r="C236" t="n">
         <v>371.7</v>
@@ -9144,7 +9144,7 @@
         </is>
       </c>
       <c r="B238" t="n">
-        <v>354.7</v>
+        <v>355.05</v>
       </c>
       <c r="C238" t="n">
         <v>365.81</v>
@@ -9183,7 +9183,7 @@
         </is>
       </c>
       <c r="B239" t="n">
-        <v>358.31</v>
+        <v>358.37</v>
       </c>
       <c r="C239" t="n">
         <v>373</v>
@@ -9222,7 +9222,7 @@
         </is>
       </c>
       <c r="B240" t="n">
-        <v>351.43</v>
+        <v>351.21</v>
       </c>
       <c r="C240" t="n">
         <v>359.89</v>
@@ -9261,7 +9261,7 @@
         </is>
       </c>
       <c r="B241" t="n">
-        <v>361.63</v>
+        <v>361.7</v>
       </c>
       <c r="C241" t="n">
         <v>374.06</v>
@@ -9300,7 +9300,7 @@
         </is>
       </c>
       <c r="B242" t="n">
-        <v>361.08</v>
+        <v>360.92</v>
       </c>
       <c r="C242" t="n">
         <v>373.4</v>
@@ -9339,7 +9339,7 @@
         </is>
       </c>
       <c r="B243" t="n">
-        <v>361.84</v>
+        <v>361.51</v>
       </c>
       <c r="C243" t="n">
         <v>367.47</v>
@@ -9378,7 +9378,7 @@
         </is>
       </c>
       <c r="B244" t="n">
-        <v>357.44</v>
+        <v>357.28</v>
       </c>
       <c r="C244" t="n">
         <v>371.19</v>
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="B246" t="n">
-        <v>367.17</v>
+        <v>367.16</v>
       </c>
       <c r="C246" t="n">
         <v>371.74</v>
@@ -9485,7 +9485,7 @@
         </is>
       </c>
       <c r="B247" t="n">
-        <v>365.91</v>
+        <v>366.08</v>
       </c>
       <c r="C247" t="n">
         <v>364.43</v>
@@ -9520,7 +9520,7 @@
         </is>
       </c>
       <c r="B248" t="n">
-        <v>363.18</v>
+        <v>363.16</v>
       </c>
       <c r="C248" t="n">
         <v>370.2</v>
@@ -9553,7 +9553,7 @@
         </is>
       </c>
       <c r="B249" t="n">
-        <v>375.34</v>
+        <v>375.11</v>
       </c>
       <c r="C249" t="n">
         <v>372.75</v>
@@ -9586,7 +9586,7 @@
         </is>
       </c>
       <c r="B250" t="n">
-        <v>357.24</v>
+        <v>356.98</v>
       </c>
       <c r="C250" t="n">
         <v>363.56</v>
@@ -9625,7 +9625,7 @@
         </is>
       </c>
       <c r="B251" t="n">
-        <v>362.88</v>
+        <v>362.74</v>
       </c>
       <c r="C251" t="n">
         <v>369.61</v>
@@ -9658,7 +9658,7 @@
         </is>
       </c>
       <c r="B252" t="n">
-        <v>361.15</v>
+        <v>361.45</v>
       </c>
       <c r="C252" t="n">
         <v>364.77</v>
@@ -9697,7 +9697,7 @@
         </is>
       </c>
       <c r="B253" t="n">
-        <v>361.31</v>
+        <v>361.36</v>
       </c>
       <c r="C253" t="n">
         <v>368</v>
@@ -9726,7 +9726,7 @@
         </is>
       </c>
       <c r="B254" t="n">
-        <v>362.62</v>
+        <v>362.65</v>
       </c>
       <c r="C254" t="n">
         <v>377.14</v>
@@ -9835,7 +9835,7 @@
         </is>
       </c>
       <c r="B257" t="n">
-        <v>357.67</v>
+        <v>357.33</v>
       </c>
       <c r="C257" t="n">
         <v>371.79</v>
@@ -9860,7 +9860,7 @@
         </is>
       </c>
       <c r="B258" t="n">
-        <v>359.68</v>
+        <v>359.99</v>
       </c>
       <c r="C258" t="n">
         <v>370.38</v>
@@ -9895,7 +9895,7 @@
         </is>
       </c>
       <c r="B259" t="n">
-        <v>356.76</v>
+        <v>356.53</v>
       </c>
       <c r="C259" t="n">
         <v>371.73</v>
@@ -9934,7 +9934,7 @@
         </is>
       </c>
       <c r="B260" t="n">
-        <v>353.51</v>
+        <v>353.6</v>
       </c>
       <c r="C260" t="n">
         <v>378.51</v>
@@ -9998,7 +9998,7 @@
         </is>
       </c>
       <c r="B262" t="n">
-        <v>360.77</v>
+        <v>360.68</v>
       </c>
       <c r="C262" t="n">
         <v>373.84</v>
@@ -10062,7 +10062,7 @@
         </is>
       </c>
       <c r="B264" t="n">
-        <v>349.26</v>
+        <v>349.53</v>
       </c>
       <c r="C264" t="n">
         <v>362.67</v>
@@ -10134,7 +10134,7 @@
         </is>
       </c>
       <c r="B266" t="n">
-        <v>373.2</v>
+        <v>373.53</v>
       </c>
       <c r="C266" t="n">
         <v>367.67</v>
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="B267" t="n">
-        <v>367.3</v>
+        <v>367.61</v>
       </c>
       <c r="C267" t="n">
         <v>365.96</v>
@@ -10198,7 +10198,7 @@
         </is>
       </c>
       <c r="B268" t="n">
-        <v>369.3</v>
+        <v>368.98</v>
       </c>
       <c r="C268" t="n">
         <v>369.13</v>
@@ -10237,7 +10237,7 @@
         </is>
       </c>
       <c r="B269" t="n">
-        <v>376.61</v>
+        <v>376.99</v>
       </c>
       <c r="C269" t="n">
         <v>370.96</v>
@@ -10268,7 +10268,7 @@
         </is>
       </c>
       <c r="B270" t="n">
-        <v>362.06</v>
+        <v>361.84</v>
       </c>
       <c r="C270" t="n">
         <v>369.54</v>
@@ -10340,7 +10340,7 @@
         </is>
       </c>
       <c r="B272" t="n">
-        <v>364.82</v>
+        <v>365.03</v>
       </c>
       <c r="C272" t="n">
         <v>375.71</v>
@@ -10379,7 +10379,7 @@
         </is>
       </c>
       <c r="B273" t="n">
-        <v>367.18</v>
+        <v>367.1</v>
       </c>
       <c r="C273" t="n">
         <v>374.77</v>
@@ -10418,7 +10418,7 @@
         </is>
       </c>
       <c r="B274" t="n">
-        <v>363.31</v>
+        <v>363.64</v>
       </c>
       <c r="C274" t="n">
         <v>368.78</v>
@@ -10457,7 +10457,7 @@
         </is>
       </c>
       <c r="B275" t="n">
-        <v>366.74</v>
+        <v>367.08</v>
       </c>
       <c r="C275" t="n">
         <v>369.92</v>
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="B276" t="n">
-        <v>360.48</v>
+        <v>360.24</v>
       </c>
       <c r="C276" t="n">
         <v>370.26</v>
@@ -10535,7 +10535,7 @@
         </is>
       </c>
       <c r="B277" t="n">
-        <v>367.17</v>
+        <v>367.6</v>
       </c>
       <c r="C277" t="n">
         <v>369.57</v>
@@ -10624,7 +10624,7 @@
         </is>
       </c>
       <c r="B280" t="n">
-        <v>361.15</v>
+        <v>361.05</v>
       </c>
       <c r="C280" t="n">
         <v>374.62</v>
@@ -10657,7 +10657,7 @@
         </is>
       </c>
       <c r="B281" t="n">
-        <v>364.11</v>
+        <v>364.15</v>
       </c>
       <c r="C281" t="n">
         <v>372</v>
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="B282" t="n">
-        <v>360.98</v>
+        <v>361.29</v>
       </c>
       <c r="C282" t="n">
         <v>375.71</v>
@@ -10758,7 +10758,7 @@
         </is>
       </c>
       <c r="B284" t="n">
-        <v>351.7</v>
+        <v>351.48</v>
       </c>
       <c r="C284" t="n">
         <v>368.37</v>
@@ -10820,7 +10820,7 @@
         </is>
       </c>
       <c r="B286" t="n">
-        <v>356.8</v>
+        <v>356.92</v>
       </c>
       <c r="C286" t="n">
         <v>362.5</v>
@@ -10892,7 +10892,7 @@
         </is>
       </c>
       <c r="B288" t="n">
-        <v>372.52</v>
+        <v>372.2</v>
       </c>
       <c r="C288" t="n">
         <v>372.33</v>
@@ -10931,7 +10931,7 @@
         </is>
       </c>
       <c r="B289" t="n">
-        <v>360.38</v>
+        <v>360.83</v>
       </c>
       <c r="C289" t="n">
         <v>369.21</v>
@@ -10960,7 +10960,7 @@
         </is>
       </c>
       <c r="B290" t="n">
-        <v>369.77</v>
+        <v>370.19</v>
       </c>
       <c r="C290" t="n">
         <v>370.88</v>
@@ -10999,7 +10999,7 @@
         </is>
       </c>
       <c r="B291" t="n">
-        <v>387.17</v>
+        <v>387.42</v>
       </c>
       <c r="C291" t="n">
         <v>365.19</v>
@@ -11038,7 +11038,7 @@
         </is>
       </c>
       <c r="B292" t="n">
-        <v>368.87</v>
+        <v>368.91</v>
       </c>
       <c r="C292" t="n">
         <v>378.26</v>
@@ -11077,7 +11077,7 @@
         </is>
       </c>
       <c r="B293" t="n">
-        <v>368.91</v>
+        <v>368.95</v>
       </c>
       <c r="C293" t="n">
         <v>372.63</v>
@@ -11116,7 +11116,7 @@
         </is>
       </c>
       <c r="B294" t="n">
-        <v>370.88</v>
+        <v>370.62</v>
       </c>
       <c r="C294" t="n">
         <v>372.31</v>
@@ -11186,7 +11186,7 @@
         </is>
       </c>
       <c r="B296" t="n">
-        <v>371.46</v>
+        <v>371.76</v>
       </c>
       <c r="C296" t="n">
         <v>364.41</v>
@@ -11215,7 +11215,7 @@
         </is>
       </c>
       <c r="B297" t="n">
-        <v>370.32</v>
+        <v>370.55</v>
       </c>
       <c r="C297" t="n">
         <v>365.34</v>
@@ -11254,7 +11254,7 @@
         </is>
       </c>
       <c r="B298" t="n">
-        <v>365.45</v>
+        <v>365.32</v>
       </c>
       <c r="C298" t="n">
         <v>372.84</v>
@@ -11316,7 +11316,7 @@
         </is>
       </c>
       <c r="B300" t="n">
-        <v>369.5</v>
+        <v>369.84</v>
       </c>
       <c r="C300" t="n">
         <v>368.94</v>
@@ -11355,7 +11355,7 @@
         </is>
       </c>
       <c r="B301" t="n">
-        <v>360.09</v>
+        <v>360.53</v>
       </c>
       <c r="C301" t="n">
         <v>370.03</v>
@@ -11388,7 +11388,7 @@
         </is>
       </c>
       <c r="B302" t="n">
-        <v>366.2</v>
+        <v>366.61</v>
       </c>
       <c r="C302" t="n">
         <v>369.53</v>
@@ -11427,7 +11427,7 @@
         </is>
       </c>
       <c r="B303" t="n">
-        <v>361.88</v>
+        <v>361.82</v>
       </c>
       <c r="C303" t="n">
         <v>374.97</v>
@@ -11458,7 +11458,7 @@
         </is>
       </c>
       <c r="B304" t="n">
-        <v>361.61</v>
+        <v>361.65</v>
       </c>
       <c r="C304" t="n">
         <v>372.59</v>
@@ -11487,7 +11487,7 @@
         </is>
       </c>
       <c r="B305" t="n">
-        <v>362.14</v>
+        <v>362.15</v>
       </c>
       <c r="C305" t="n">
         <v>375.16</v>
@@ -11526,7 +11526,7 @@
         </is>
       </c>
       <c r="B306" t="n">
-        <v>344.56</v>
+        <v>344.26</v>
       </c>
       <c r="C306" t="n">
         <v>356.63</v>
@@ -11551,7 +11551,7 @@
         </is>
       </c>
       <c r="B307" t="n">
-        <v>344.21</v>
+        <v>343.87</v>
       </c>
       <c r="C307" t="n">
         <v>355.79</v>
@@ -11586,7 +11586,7 @@
         </is>
       </c>
       <c r="B308" t="n">
-        <v>362.04</v>
+        <v>362.3</v>
       </c>
       <c r="C308" t="inlineStr"/>
       <c r="D308" t="inlineStr"/>
@@ -11619,7 +11619,7 @@
         </is>
       </c>
       <c r="B309" t="n">
-        <v>351.2</v>
+        <v>351.09</v>
       </c>
       <c r="C309" t="n">
         <v>369.17</v>
@@ -11658,7 +11658,7 @@
         </is>
       </c>
       <c r="B310" t="n">
-        <v>351.96</v>
+        <v>352.14</v>
       </c>
       <c r="C310" t="n">
         <v>363.31</v>
@@ -11683,7 +11683,7 @@
         </is>
       </c>
       <c r="B311" t="n">
-        <v>367.71</v>
+        <v>368.05</v>
       </c>
       <c r="C311" t="n">
         <v>366.32</v>
@@ -11749,7 +11749,7 @@
         </is>
       </c>
       <c r="B313" t="n">
-        <v>379.78</v>
+        <v>379.76</v>
       </c>
       <c r="C313" t="n">
         <v>374.95</v>
@@ -11776,7 +11776,7 @@
         </is>
       </c>
       <c r="B314" t="n">
-        <v>363.04</v>
+        <v>363.49</v>
       </c>
       <c r="C314" t="n">
         <v>363.55</v>
@@ -11842,7 +11842,7 @@
         </is>
       </c>
       <c r="B316" t="n">
-        <v>361.81</v>
+        <v>361.67</v>
       </c>
       <c r="C316" t="n">
         <v>369.8</v>
@@ -11877,7 +11877,7 @@
         </is>
       </c>
       <c r="B317" t="n">
-        <v>365.88</v>
+        <v>366.1</v>
       </c>
       <c r="C317" t="n">
         <v>381.16</v>
@@ -11910,7 +11910,7 @@
         </is>
       </c>
       <c r="B318" t="n">
-        <v>371.45</v>
+        <v>371.8</v>
       </c>
       <c r="C318" t="n">
         <v>361.97</v>
@@ -11949,7 +11949,7 @@
         </is>
       </c>
       <c r="B319" t="n">
-        <v>360.92</v>
+        <v>360.75</v>
       </c>
       <c r="C319" t="n">
         <v>368.17</v>
@@ -11988,7 +11988,7 @@
         </is>
       </c>
       <c r="B320" t="n">
-        <v>363.8</v>
+        <v>363.9</v>
       </c>
       <c r="C320" t="inlineStr"/>
       <c r="D320" t="inlineStr"/>
@@ -12015,7 +12015,7 @@
         </is>
       </c>
       <c r="B321" t="n">
-        <v>363.79</v>
+        <v>363.68</v>
       </c>
       <c r="C321" t="n">
         <v>371.13</v>
@@ -12050,7 +12050,7 @@
         </is>
       </c>
       <c r="B322" t="n">
-        <v>364.67</v>
+        <v>364.77</v>
       </c>
       <c r="C322" t="n">
         <v>361.97</v>
@@ -12120,7 +12120,7 @@
         </is>
       </c>
       <c r="B324" t="n">
-        <v>372.15</v>
+        <v>371.98</v>
       </c>
       <c r="C324" t="n">
         <v>372.47</v>
@@ -12151,7 +12151,7 @@
         </is>
       </c>
       <c r="B325" t="n">
-        <v>358.5</v>
+        <v>358.26</v>
       </c>
       <c r="C325" t="n">
         <v>369.66</v>
@@ -12182,7 +12182,7 @@
         </is>
       </c>
       <c r="B326" t="n">
-        <v>360.65</v>
+        <v>360.39</v>
       </c>
       <c r="C326" t="n">
         <v>368.74</v>
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="B327" t="n">
-        <v>360.49</v>
+        <v>360.28</v>
       </c>
       <c r="C327" t="n">
         <v>370.13</v>
@@ -12260,7 +12260,7 @@
         </is>
       </c>
       <c r="B328" t="n">
-        <v>353.57</v>
+        <v>353.59</v>
       </c>
       <c r="C328" t="n">
         <v>363.83</v>
@@ -12359,7 +12359,7 @@
         </is>
       </c>
       <c r="B331" t="n">
-        <v>352.28</v>
+        <v>352.25</v>
       </c>
       <c r="C331" t="n">
         <v>373.46</v>
@@ -12398,7 +12398,7 @@
         </is>
       </c>
       <c r="B332" t="n">
-        <v>357.43</v>
+        <v>357.6</v>
       </c>
       <c r="C332" t="n">
         <v>369.97</v>
@@ -12462,7 +12462,7 @@
         </is>
       </c>
       <c r="B334" t="n">
-        <v>345.47</v>
+        <v>345.68</v>
       </c>
       <c r="C334" t="n">
         <v>364.26</v>
@@ -12528,7 +12528,7 @@
         </is>
       </c>
       <c r="B336" t="n">
-        <v>348.14</v>
+        <v>347.88</v>
       </c>
       <c r="C336" t="n">
         <v>363.49</v>
@@ -12567,7 +12567,7 @@
         </is>
       </c>
       <c r="B337" t="n">
-        <v>352.59</v>
+        <v>352.31</v>
       </c>
       <c r="C337" t="n">
         <v>366.55</v>
@@ -12635,7 +12635,7 @@
         </is>
       </c>
       <c r="B339" t="n">
-        <v>355.73</v>
+        <v>355.67</v>
       </c>
       <c r="C339" t="n">
         <v>363.35</v>
@@ -12674,7 +12674,7 @@
         </is>
       </c>
       <c r="B340" t="n">
-        <v>369.6</v>
+        <v>369.89</v>
       </c>
       <c r="C340" t="n">
         <v>384.78</v>
@@ -12711,7 +12711,7 @@
         </is>
       </c>
       <c r="B341" t="n">
-        <v>362.2</v>
+        <v>362.39</v>
       </c>
       <c r="C341" t="n">
         <v>361.8</v>
@@ -12742,7 +12742,7 @@
         </is>
       </c>
       <c r="B342" t="n">
-        <v>361.76</v>
+        <v>361.77</v>
       </c>
       <c r="C342" t="n">
         <v>356.13</v>
@@ -12775,7 +12775,7 @@
         </is>
       </c>
       <c r="B343" t="n">
-        <v>366.55</v>
+        <v>366.31</v>
       </c>
       <c r="C343" t="n">
         <v>368.25</v>
@@ -12847,7 +12847,7 @@
         </is>
       </c>
       <c r="B345" t="n">
-        <v>349.48</v>
+        <v>349.32</v>
       </c>
       <c r="C345" t="n">
         <v>354.36</v>
@@ -12886,7 +12886,7 @@
         </is>
       </c>
       <c r="B346" t="n">
-        <v>362.45</v>
+        <v>362.89</v>
       </c>
       <c r="C346" t="n">
         <v>374.39</v>
@@ -12923,7 +12923,7 @@
         </is>
       </c>
       <c r="B347" t="n">
-        <v>359.3</v>
+        <v>359.03</v>
       </c>
       <c r="C347" t="n">
         <v>362.05</v>
@@ -12958,7 +12958,7 @@
         </is>
       </c>
       <c r="B348" t="n">
-        <v>361.43</v>
+        <v>361.21</v>
       </c>
       <c r="C348" t="n">
         <v>371.99</v>
@@ -12997,7 +12997,7 @@
         </is>
       </c>
       <c r="B349" t="n">
-        <v>362.49</v>
+        <v>362.95</v>
       </c>
       <c r="C349" t="n">
         <v>357.12</v>
@@ -13034,7 +13034,7 @@
         </is>
       </c>
       <c r="B350" t="n">
-        <v>364.31</v>
+        <v>364.64</v>
       </c>
       <c r="C350" t="n">
         <v>368.87</v>
@@ -13073,7 +13073,7 @@
         </is>
       </c>
       <c r="B351" t="n">
-        <v>359.4</v>
+        <v>359.22</v>
       </c>
       <c r="C351" t="n">
         <v>366</v>
@@ -13112,7 +13112,7 @@
         </is>
       </c>
       <c r="B352" t="n">
-        <v>365.51</v>
+        <v>365.55</v>
       </c>
       <c r="C352" t="n">
         <v>371.26</v>
@@ -13186,7 +13186,7 @@
         </is>
       </c>
       <c r="B354" t="n">
-        <v>364.01</v>
+        <v>364.11</v>
       </c>
       <c r="C354" t="n">
         <v>371.93</v>
@@ -13260,7 +13260,7 @@
         </is>
       </c>
       <c r="B356" t="n">
-        <v>363.89</v>
+        <v>364.12</v>
       </c>
       <c r="C356" t="n">
         <v>373.77</v>
@@ -13297,7 +13297,7 @@
         </is>
       </c>
       <c r="B357" t="n">
-        <v>359.58</v>
+        <v>359.79</v>
       </c>
       <c r="C357" t="n">
         <v>372.71</v>
@@ -13328,7 +13328,7 @@
         </is>
       </c>
       <c r="B358" t="n">
-        <v>354.22</v>
+        <v>354.44</v>
       </c>
       <c r="C358" t="n">
         <v>361.97</v>
@@ -13365,7 +13365,7 @@
         </is>
       </c>
       <c r="B359" t="n">
-        <v>361.12</v>
+        <v>361.45</v>
       </c>
       <c r="C359" t="n">
         <v>373.63</v>
@@ -13404,7 +13404,7 @@
         </is>
       </c>
       <c r="B360" t="n">
-        <v>358.84</v>
+        <v>358.98</v>
       </c>
       <c r="C360" t="n">
         <v>378.09</v>
@@ -13443,7 +13443,7 @@
         </is>
       </c>
       <c r="B361" t="n">
-        <v>354.78</v>
+        <v>354.56</v>
       </c>
       <c r="C361" t="n">
         <v>370.91</v>
@@ -13482,7 +13482,7 @@
         </is>
       </c>
       <c r="B362" t="n">
-        <v>358.76</v>
+        <v>358.78</v>
       </c>
       <c r="C362" t="n">
         <v>376.17</v>
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="B363" t="n">
-        <v>368.36</v>
+        <v>368.08</v>
       </c>
       <c r="C363" t="n">
         <v>372.62</v>
@@ -13560,7 +13560,7 @@
         </is>
       </c>
       <c r="B364" t="n">
-        <v>362.88</v>
+        <v>363.27</v>
       </c>
       <c r="C364" t="n">
         <v>376.29</v>
@@ -13597,7 +13597,7 @@
         </is>
       </c>
       <c r="B365" t="n">
-        <v>357.49</v>
+        <v>357.25</v>
       </c>
       <c r="C365" t="n">
         <v>370.9</v>
@@ -13636,7 +13636,7 @@
         </is>
       </c>
       <c r="B366" t="n">
-        <v>380.95</v>
+        <v>381.08</v>
       </c>
       <c r="C366" t="n">
         <v>385.84</v>
@@ -13663,7 +13663,7 @@
         </is>
       </c>
       <c r="B367" t="n">
-        <v>364.06</v>
+        <v>364.31</v>
       </c>
       <c r="C367" t="n">
         <v>365.66</v>
@@ -13735,7 +13735,7 @@
         </is>
       </c>
       <c r="B369" t="n">
-        <v>382.05</v>
+        <v>382.34</v>
       </c>
       <c r="C369" t="n">
         <v>391.15</v>
@@ -13766,7 +13766,7 @@
         </is>
       </c>
       <c r="B370" t="n">
-        <v>361.27</v>
+        <v>361.05</v>
       </c>
       <c r="C370" t="n">
         <v>366.35</v>
@@ -13805,7 +13805,7 @@
         </is>
       </c>
       <c r="B371" t="n">
-        <v>368.98</v>
+        <v>368.77</v>
       </c>
       <c r="C371" t="n">
         <v>369.04</v>
@@ -13844,7 +13844,7 @@
         </is>
       </c>
       <c r="B372" t="n">
-        <v>368.73</v>
+        <v>368.83</v>
       </c>
       <c r="C372" t="n">
         <v>367.69</v>
@@ -13883,7 +13883,7 @@
         </is>
       </c>
       <c r="B373" t="n">
-        <v>352.72</v>
+        <v>352.71</v>
       </c>
       <c r="C373" t="n">
         <v>374.59</v>
@@ -13953,7 +13953,7 @@
         </is>
       </c>
       <c r="B375" t="n">
-        <v>377.01</v>
+        <v>377.42</v>
       </c>
       <c r="C375" t="n">
         <v>371.04</v>
@@ -13990,7 +13990,7 @@
         </is>
       </c>
       <c r="B376" t="n">
-        <v>365.71</v>
+        <v>365.98</v>
       </c>
       <c r="C376" t="n">
         <v>364.32</v>
@@ -14029,7 +14029,7 @@
         </is>
       </c>
       <c r="B377" t="n">
-        <v>368.78</v>
+        <v>368.56</v>
       </c>
       <c r="C377" t="n">
         <v>369.46</v>
@@ -14068,7 +14068,7 @@
         </is>
       </c>
       <c r="B378" t="n">
-        <v>370.31</v>
+        <v>370.77</v>
       </c>
       <c r="C378" t="n">
         <v>368.03</v>
@@ -14107,7 +14107,7 @@
         </is>
       </c>
       <c r="B379" t="n">
-        <v>363.26</v>
+        <v>363.12</v>
       </c>
       <c r="C379" t="n">
         <v>371.35</v>
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="B380" t="n">
-        <v>360.9</v>
+        <v>360.7</v>
       </c>
       <c r="C380" t="n">
         <v>371.19</v>
@@ -14185,7 +14185,7 @@
         </is>
       </c>
       <c r="B381" t="n">
-        <v>358.76</v>
+        <v>358.47</v>
       </c>
       <c r="C381" t="n">
         <v>370.86</v>
@@ -14224,7 +14224,7 @@
         </is>
       </c>
       <c r="B382" t="n">
-        <v>364.07</v>
+        <v>364.39</v>
       </c>
       <c r="C382" t="n">
         <v>368.2</v>
@@ -14263,7 +14263,7 @@
         </is>
       </c>
       <c r="B383" t="n">
-        <v>354.75</v>
+        <v>354.8</v>
       </c>
       <c r="C383" t="inlineStr"/>
       <c r="D383" t="inlineStr"/>
@@ -14286,7 +14286,7 @@
         </is>
       </c>
       <c r="B384" t="n">
-        <v>353.37</v>
+        <v>353.46</v>
       </c>
       <c r="C384" t="inlineStr"/>
       <c r="D384" t="inlineStr"/>
@@ -14319,7 +14319,7 @@
         </is>
       </c>
       <c r="B385" t="n">
-        <v>343.17</v>
+        <v>343.32</v>
       </c>
       <c r="C385" t="n">
         <v>347.78</v>
@@ -14348,7 +14348,7 @@
         </is>
       </c>
       <c r="B386" t="n">
-        <v>352.42</v>
+        <v>352.19</v>
       </c>
       <c r="C386" t="n">
         <v>362.97</v>
@@ -14387,7 +14387,7 @@
         </is>
       </c>
       <c r="B387" t="n">
-        <v>361.67</v>
+        <v>361.92</v>
       </c>
       <c r="C387" t="n">
         <v>368.2</v>
@@ -14426,7 +14426,7 @@
         </is>
       </c>
       <c r="B388" t="n">
-        <v>334.17</v>
+        <v>333.9</v>
       </c>
       <c r="C388" t="n">
         <v>336.79</v>
@@ -14459,7 +14459,7 @@
         </is>
       </c>
       <c r="B389" t="n">
-        <v>362.58</v>
+        <v>362.68</v>
       </c>
       <c r="C389" t="n">
         <v>366.82</v>
@@ -14498,7 +14498,7 @@
         </is>
       </c>
       <c r="B390" t="n">
-        <v>367.06</v>
+        <v>366.87</v>
       </c>
       <c r="C390" t="n">
         <v>368.58</v>
@@ -14537,7 +14537,7 @@
         </is>
       </c>
       <c r="B391" t="n">
-        <v>364.79</v>
+        <v>365.04</v>
       </c>
       <c r="C391" t="n">
         <v>366.71</v>
@@ -14576,7 +14576,7 @@
         </is>
       </c>
       <c r="B392" t="n">
-        <v>376.14</v>
+        <v>375.88</v>
       </c>
       <c r="C392" t="n">
         <v>376.52</v>
@@ -14615,7 +14615,7 @@
         </is>
       </c>
       <c r="B393" t="n">
-        <v>368.91</v>
+        <v>369.1</v>
       </c>
       <c r="C393" t="n">
         <v>364.8</v>
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="B394" t="n">
-        <v>364.46</v>
+        <v>364.6</v>
       </c>
       <c r="C394" t="n">
         <v>371.78</v>
@@ -14685,7 +14685,7 @@
         </is>
       </c>
       <c r="B395" t="n">
-        <v>368.33</v>
+        <v>368.12</v>
       </c>
       <c r="C395" t="n">
         <v>369.12</v>
@@ -14724,7 +14724,7 @@
         </is>
       </c>
       <c r="B396" t="n">
-        <v>361.85</v>
+        <v>361.67</v>
       </c>
       <c r="C396" t="n">
         <v>371.15</v>
@@ -14763,7 +14763,7 @@
         </is>
       </c>
       <c r="B397" t="n">
-        <v>366.21</v>
+        <v>366.46</v>
       </c>
       <c r="C397" t="n">
         <v>365.46</v>
@@ -14802,7 +14802,7 @@
         </is>
       </c>
       <c r="B398" t="n">
-        <v>358.59</v>
+        <v>358.62</v>
       </c>
       <c r="C398" t="n">
         <v>362.21</v>
@@ -14841,7 +14841,7 @@
         </is>
       </c>
       <c r="B399" t="n">
-        <v>359.93</v>
+        <v>360.11</v>
       </c>
       <c r="C399" t="n">
         <v>363.57</v>
@@ -14880,7 +14880,7 @@
         </is>
       </c>
       <c r="B400" t="n">
-        <v>355.88</v>
+        <v>355.61</v>
       </c>
       <c r="C400" t="n">
         <v>366.86</v>
@@ -14919,7 +14919,7 @@
         </is>
       </c>
       <c r="B401" t="n">
-        <v>359.51</v>
+        <v>359.76</v>
       </c>
       <c r="C401" t="n">
         <v>370.88</v>
@@ -14958,7 +14958,7 @@
         </is>
       </c>
       <c r="B402" t="n">
-        <v>352.82</v>
+        <v>352.71</v>
       </c>
       <c r="C402" t="n">
         <v>371.58</v>
@@ -14997,7 +14997,7 @@
         </is>
       </c>
       <c r="B403" t="n">
-        <v>357.64</v>
+        <v>357.8</v>
       </c>
       <c r="C403" t="n">
         <v>362.53</v>
@@ -15036,7 +15036,7 @@
         </is>
       </c>
       <c r="B404" t="n">
-        <v>364.39</v>
+        <v>364.63</v>
       </c>
       <c r="C404" t="n">
         <v>369.4</v>
@@ -15075,7 +15075,7 @@
         </is>
       </c>
       <c r="B405" t="n">
-        <v>363.23</v>
+        <v>363.43</v>
       </c>
       <c r="C405" t="n">
         <v>362.13</v>
@@ -19529,7 +19529,7 @@
         <v>0.1573</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.02800001491066672</v>
+        <v>-0.02750615512865018</v>
       </c>
       <c r="J2" t="n">
         <v>404</v>
@@ -19538,19 +19538,19 @@
         <v>335</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0007844830070966591</v>
+        <v>0.0007551962627988518</v>
       </c>
       <c r="M2" t="n">
-        <v>5.372321262130765</v>
+        <v>5.393220992209224</v>
       </c>
       <c r="N2" t="n">
-        <v>52.81741811429563</v>
+        <v>52.94888947083295</v>
       </c>
       <c r="O2" t="n">
-        <v>7.267559295547277</v>
+        <v>7.27659875703154</v>
       </c>
       <c r="P2" t="n">
-        <v>362.2876497165283</v>
+        <v>362.3156737670236</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-36.745636937795005,175.16857352520222</t>
+          <t>-36.74563692230153,175.16857374830514</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -20431,7 +20431,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-36.74563283200699,175.16863264747067</t>
+          <t>-36.74563266157741,175.1686351016024</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-36.74563064740598,175.1686641049764</t>
+          <t>-36.7456308023425,175.16866187394768</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -20545,7 +20545,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-36.74564224428913,175.1684971124475</t>
+          <t>-36.745642259782464,175.16849688934454</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -20602,7 +20602,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-36.745638920957646,175.16854496802824</t>
+          <t>-36.74563878926346,175.16854686440314</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -20696,7 +20696,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-36.745630864317086,175.16866098153622</t>
+          <t>-36.745630709380585,175.16866321256492</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -20749,7 +20749,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>-36.74563751105366,175.1685652703943</t>
+          <t>-36.74563758077427,175.16856426643116</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -20806,7 +20806,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>-36.74564005197703,175.16852868151418</t>
+          <t>-36.74564006747044,175.16852845841123</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -20863,7 +20863,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-36.74563986605619,175.16853135874942</t>
+          <t>-36.74563984281608,175.16853169340382</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-36.74564052452557,175.16852187687454</t>
+          <t>-36.74564038508505,175.168523884801</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -20977,7 +20977,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-36.745638549115164,175.1685503224985</t>
+          <t>-36.745638448407796,175.16855177266754</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -21034,7 +21034,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>-36.7456382547397,175.16855456145407</t>
+          <t>-36.745638378687296,175.1685527766307</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -21091,7 +21091,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-36.745636775113404,175.16857586778283</t>
+          <t>-36.745636937795005,175.16857352520222</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -21201,7 +21201,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>-36.74563870404956,175.16854809146923</t>
+          <t>-36.74563845615451,175.16855166111606</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -21311,7 +21311,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-36.745630546697235,175.16866555514503</t>
+          <t>-36.74563034527967,175.16866845548233</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -21368,7 +21368,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-36.74563651172403,175.16857966053232</t>
+          <t>-36.745636651165476,175.16857765260613</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -21425,7 +21425,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>-36.745634652501515,175.1686064328809</t>
+          <t>-36.74563456728699,175.16860765994684</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -21482,7 +21482,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>-36.74563390106404,175.16861725337134</t>
+          <t>-36.745633730634786,175.16861970750315</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -21539,7 +21539,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>-36.74563751105366,175.1685652703943</t>
+          <t>-36.74563744133305,175.16856627435743</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -21596,7 +21596,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>-36.74563538844447,175.16859583549314</t>
+          <t>-36.74563552788619,175.16859382756698</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -21653,7 +21653,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>-36.74563302567689,175.16862985868462</t>
+          <t>-36.74563317286597,175.16862773920718</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -21710,7 +21710,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>-36.74563442784504,175.16860966787291</t>
+          <t>-36.74563452855312,175.1686082177041</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -21763,7 +21763,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>-36.74562888887364,175.16868942715138</t>
+          <t>-36.745629082544866,175.16868663836564</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -21849,7 +21849,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>-36.74563794487064,175.16855902351253</t>
+          <t>-36.74563765049487,175.16856326246804</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -21947,7 +21947,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>-36.74562743246394,175.16871039881943</t>
+          <t>-36.74562756416071,175.1687085024452</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -22004,7 +22004,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>-36.745625883087875,175.16873270910352</t>
+          <t>-36.74562606126634,175.1687301434209</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -22102,7 +22102,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>-36.745637092729844,175.16857129417306</t>
+          <t>-36.74563679060689,175.1685756446799</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -22151,7 +22151,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>-36.74564253091587,175.16849298504286</t>
+          <t>-36.74564266260921,175.16849108866774</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -22261,7 +22261,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>-36.7456320340863,175.16864413726913</t>
+          <t>-36.74563220451605,175.16864168313742</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -22318,7 +22318,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>-36.74563538844447,175.16859583549314</t>
+          <t>-36.74563552013942,175.16859393911844</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -22375,7 +22375,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>-36.74563805332483,175.16855746179206</t>
+          <t>-36.745638045578104,175.16855757334355</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -22432,7 +22432,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>-36.745638370940554,175.16855288818215</t>
+          <t>-36.745638339953665,175.168553334388</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -22489,7 +22489,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>-36.74563442009827,175.16860977942437</t>
+          <t>-36.745634265162714,175.1686120104533</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -22599,7 +22599,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>-36.74564104355385,175.16851440292598</t>
+          <t>-36.74564075692634,175.16851853033043</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -22656,7 +22656,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>-36.745635814516284,175.1685897001632</t>
+          <t>-36.74563563634083,175.16859226584663</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -22709,7 +22709,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>-36.74564632677038,175.16843832481567</t>
+          <t>-36.745646187331246,175.16844033274248</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -22766,7 +22766,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>-36.745631530543555,175.16865138811264</t>
+          <t>-36.745631414341325,175.16865306138422</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -22823,7 +22823,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>-36.745637387105894,175.16856705521766</t>
+          <t>-36.74563748006672,175.16856571660014</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -22880,7 +22880,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>-36.74563575254222,175.16859059257487</t>
+          <t>-36.74563565958112,175.16859193119228</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -22937,7 +22937,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>-36.74563149180948,175.16865194586984</t>
+          <t>-36.745631638998944,175.1686498263925</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -22994,7 +22994,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>-36.74563260734981,175.1686358824625</t>
+          <t>-36.745632785526205,175.16863331677934</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -23051,7 +23051,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>-36.74563344400365,175.16862383490664</t>
+          <t>-36.74563368415407,175.16862037681182</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -23108,7 +23108,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>-36.74563326582748,175.16862640058986</t>
+          <t>-36.74563322709351,175.16862695834706</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -23243,7 +23243,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>-36.74563368415407,175.16862037681182</t>
+          <t>-36.745633707394425,175.1686200421575</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -23300,7 +23300,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>-36.74562712258907,175.16871486087632</t>
+          <t>-36.74562717681718,175.16871408001637</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -23459,7 +23459,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>-36.7456368990613,175.1685740829595</t>
+          <t>-36.74563703850266,175.16857207503327</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -23516,7 +23516,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>-36.74563631030855,175.16858256087016</t>
+          <t>-36.745636139880006,175.16858501500215</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -23565,7 +23565,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>-36.745643135155625,175.16848428402753</t>
+          <t>-36.74564312740896,175.16848439557901</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -23622,7 +23622,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>-36.74562739372959,175.16871095657655</t>
+          <t>-36.74562723879215,175.16871318760502</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -23781,7 +23781,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>-36.745632963702526,175.16863075109615</t>
+          <t>-36.74563265383062,175.16863521315383</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -23826,7 +23826,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>-36.74565033175714,175.16838065269118</t>
+          <t>-36.74565007612051,175.16838433389086</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -23867,7 +23867,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>-36.74563383134298,175.16861825733434</t>
+          <t>-36.74563359893942,175.16862160387774</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -23924,7 +23924,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>-36.745641299194475,175.1685107217274</t>
+          <t>-36.74564142314139,175.16850893690383</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -23981,7 +23981,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>-36.74563435812405,175.16861067183598</t>
+          <t>-36.74563433488373,175.1686110064903</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -24038,7 +24038,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>-36.74563641876304,175.1685809991498</t>
+          <t>-36.7456365891915,175.16857854501777</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -24132,7 +24132,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>-36.74563264608382,175.1686353247053</t>
+          <t>-36.74563265383062,175.16863521315383</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -24181,7 +24181,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>-36.7456311509495,175.16865685413308</t>
+          <t>-36.74563100375989,175.16865897361035</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -24226,7 +24226,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>-36.745633994025425,175.16861591475399</t>
+          <t>-36.74563369190085,175.1686202652604</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -24267,7 +24267,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>-36.745639230826185,175.16854050596964</t>
+          <t>-36.74563940125382,175.1685380518374</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -24324,7 +24324,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>-36.74563703850266,175.16857207503327</t>
+          <t>-36.74563682159387,175.1685751984741</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -24373,7 +24373,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>-36.74563878926346,175.16854686440314</t>
+          <t>-36.74563860334221,175.16854954163827</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -24430,7 +24430,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>-36.745638936451066,175.16854474492533</t>
+          <t>-36.745638773770025,175.16854708750606</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -24487,7 +24487,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>-36.74563651172403,175.16857966053232</t>
+          <t>-36.7456362560813,175.16858334173037</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -24585,7 +24585,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>-36.74563564408759,175.1685921542952</t>
+          <t>-36.74563572155519,175.16859103878068</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -24736,7 +24736,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>-36.74563089530438,175.16866053533047</t>
+          <t>-36.74563115869631,175.16865674258162</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -24793,7 +24793,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>-36.74563445883215,175.1686092216671</t>
+          <t>-36.745634195441724,175.16861301441637</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -24850,7 +24850,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>-36.74562879591142,175.1686907657685</t>
+          <t>-36.745628950848435,175.16868853473994</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -24899,7 +24899,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>-36.74563216578203,175.16864224089466</t>
+          <t>-36.74563217352882,175.1686421293432</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -24956,7 +24956,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>-36.74563183266926,175.16864703760655</t>
+          <t>-36.74563182492244,175.16864714915798</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -25001,7 +25001,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>-36.745635427178286,175.16859527773588</t>
+          <t>-36.74563514054799,175.16859940513956</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -25050,7 +25050,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>-36.74563836319385,175.1685529997336</t>
+          <t>-36.74563816952573,175.16855578852017</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -25095,7 +25095,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>-36.74564027663129,175.16852544652158</t>
+          <t>-36.745640129444034,175.16852756599948</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -25201,7 +25201,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>-36.74563450531281,175.16860855235845</t>
+          <t>-36.745634412351485,175.16860989097583</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -25258,7 +25258,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>-36.74563902166494,175.16854351785923</t>
+          <t>-36.74563904490508,175.16854318320483</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -25303,7 +25303,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>-36.745632917221755,175.1686314204048</t>
+          <t>-36.74563275453901,175.1686337629851</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -25360,7 +25360,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>-36.745633118638416,175.1686285200673</t>
+          <t>-36.74563279327299,175.1686332052279</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -25413,7 +25413,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>-36.7456314530754,175.16865250362702</t>
+          <t>-36.74563120517724,175.168656073273</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -25515,7 +25515,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>-36.745638386434,175.16855266507923</t>
+          <t>-36.74563850263484,175.16855099180728</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -25613,7 +25613,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>-36.74564465349882,175.16846241993704</t>
+          <t>-36.74564439011304,175.16846621268752</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -25703,7 +25703,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>-36.74564208935568,175.168499343477</t>
+          <t>-36.74564194991555,175.1685013514036</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -25748,7 +25748,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>-36.74563603917221,175.16858646517107</t>
+          <t>-36.745636070159215,175.16858601896527</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -25805,7 +25805,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>-36.74563977309574,175.168532697367</t>
+          <t>-36.74563975760233,175.16853292046994</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -25862,7 +25862,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>-36.74562917550703,175.1686852997485</t>
+          <t>-36.74562921424127,175.16868474199134</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -25919,7 +25919,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>-36.745645761267106,175.16844646807442</t>
+          <t>-36.745645738027235,175.16844680272888</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -25964,7 +25964,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>-36.74564078791311,175.16851808412454</t>
+          <t>-36.74564081889987,175.16851763791865</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -26013,7 +26013,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>-36.745636108893,175.16858546120798</t>
+          <t>-36.74563624833453,175.1685834532818</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -26115,7 +26115,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>-36.74563559760703,175.16859282360392</t>
+          <t>-36.74563587649034,175.1685888077516</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -26172,7 +26172,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>-36.745631817175635,175.1686472607094</t>
+          <t>-36.74563191788417,175.1686458105407</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -26270,7 +26270,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>-36.745630864317086,175.16866098153622</t>
+          <t>-36.7456309030512,175.16866042377902</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -26327,7 +26327,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>-36.745630709380585,175.16866321256492</t>
+          <t>-36.745630864317086,175.16866098153622</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -26368,7 +26368,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>-36.74563338977613,175.16862461576673</t>
+          <t>-36.74563353696512,175.1686224962893</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -26417,7 +26417,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>-36.74564165554181,175.16850559035962</t>
+          <t>-36.74564168652853,175.16850514415373</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -26507,7 +26507,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>-36.745649162025,175.16839749696817</t>
+          <t>-36.745648937374185,175.1684007319617</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -26564,7 +26564,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>-36.74563778993605,175.16856125454174</t>
+          <t>-36.745637588521014,175.16856415487973</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -26617,7 +26617,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>-36.745625875341005,175.16873282065492</t>
+          <t>-36.74562614648212,175.16872891635532</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -26703,7 +26703,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>-36.745636643418734,175.16857776415756</t>
+          <t>-36.74563641876304,175.1685809991498</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -26748,7 +26748,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>-36.745636937795005,175.16857352520222</t>
+          <t>-36.74563699976895,175.16857263279056</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -26805,7 +26805,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>-36.745637023009174,175.16857229813618</t>
+          <t>-36.745637185690725,175.16856995555557</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -26862,7 +26862,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>-36.74563913786564,175.16854184458725</t>
+          <t>-36.74563916110578,175.16854150993285</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -26919,7 +26919,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>-36.74563706948962,175.16857162882744</t>
+          <t>-36.74563710822332,175.16857107107015</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -26976,7 +26976,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>-36.7456562655936,175.1682952042301</t>
+          <t>-36.74565597122719,175.1682994431881</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -27029,7 +27029,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>-36.745642755569186,175.16848975005</t>
+          <t>-36.7456429414891,175.16848707281451</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -27074,7 +27074,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>-36.745643871087765,175.16847368663687</t>
+          <t>-36.745643987287494,175.16847201336464</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -27119,7 +27119,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>-36.745637309638525,175.16856817073224</t>
+          <t>-36.74563720893094,175.1685696209012</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -27266,7 +27266,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>-36.745635117307685,175.1685997397939</t>
+          <t>-36.74563538844447,175.16859583549314</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -27368,7 +27368,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>-36.74564201963562,175.1685003474403</t>
+          <t>-36.74564177174199,175.1685039170875</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -27417,7 +27417,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>-36.74563647299029,175.1685802182896</t>
+          <t>-36.745636217347524,175.16858389948763</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -27458,7 +27458,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>-36.7456375652808,175.1685644895341</t>
+          <t>-36.74563778993605,175.16856125454174</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -27499,7 +27499,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>-36.74563502434649,175.1686010784113</t>
+          <t>-36.745635117307685,175.1685997397939</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -27556,7 +27556,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>-36.7456335524587,175.1686222731864</t>
+          <t>-36.74563362217978,175.1686212692234</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -27601,7 +27601,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>-36.74562933044394,175.1686830687199</t>
+          <t>-36.74562921424127,175.16868474199134</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -27650,7 +27650,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>-36.74563733287874,175.16856783607787</t>
+          <t>-36.745637185690725,175.16856995555557</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -27707,7 +27707,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>-36.74564096608697,175.1685155184407</t>
+          <t>-36.74564111327404,175.16851339896274</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -27760,7 +27760,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>-36.74563775120238,175.16856181229906</t>
+          <t>-36.74563779768277,175.16856114299028</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -27858,7 +27858,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>-36.74564622606436,175.16843977498505</t>
+          <t>-36.74564625705082,175.16843932877907</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -27911,7 +27911,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>-36.74563765049487,175.16856326246804</t>
+          <t>-36.7456379371239,175.16855913506402</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -27968,7 +27968,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>-36.745636465243535,175.16858032984106</t>
+          <t>-36.745636651165476,175.16857765260613</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -28025,7 +28025,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>-36.745637418092834,175.16856660901183</t>
+          <t>-36.74563715470376,175.1685704017614</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -28082,7 +28082,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>-36.74563429614984,175.16861156424756</t>
+          <t>-36.745634025012556,175.16861546854818</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -28139,7 +28139,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>-36.74563462926118,175.16860676753524</t>
+          <t>-36.745634706728914,175.16860565202074</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -28192,7 +28192,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>-36.74563193337779,175.16864558743782</t>
+          <t>-36.74563191788417,175.1686458105407</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -28302,7 +28302,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>-36.74563618636052,175.16858434569343</t>
+          <t>-36.74563634129556,175.16858211466436</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -28359,7 +28359,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>-36.74564051677888,175.16852198842602</t>
+          <t>-36.74564026113791,175.1685256696245</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -28404,7 +28404,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>-36.745632801019795,175.16863309367645</t>
+          <t>-36.74563250664141,175.16863733263125</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -28461,7 +28461,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>-36.7456304847226,175.1686664475565</t>
+          <t>-36.74563044598845,175.1686670053137</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -28543,7 +28543,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>-36.74563799135102,175.16855835420378</t>
+          <t>-36.7456378286697,175.16856069678445</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -28600,7 +28600,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>-36.74563868855611,175.16854831457218</t>
+          <t>-36.745638827997055,175.16854630664582</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -28657,7 +28657,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>-36.745639176599205,175.1685412868299</t>
+          <t>-36.745639091385364,175.16854251389603</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -28714,7 +28714,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>-36.745641144260766,175.16851295275686</t>
+          <t>-36.7456411829942,175.16851239499948</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -28771,7 +28771,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>-36.74564322036886,175.16848305696126</t>
+          <t>-36.74564343727524,175.16847993351982</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -28857,7 +28857,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>-36.74563584550331,175.1685892539574</t>
+          <t>-36.74563561310055,175.168592600501</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -28914,7 +28914,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>-36.74563057768453,175.1686651089393</t>
+          <t>-36.745630546697235,175.16866555514503</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -29016,7 +29016,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>-36.7456292374818,175.16868440733705</t>
+          <t>-36.74562902057008,175.16868753077708</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -29073,7 +29073,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>-36.7456316699862,175.16864938018676</t>
+          <t>-36.745631414341325,175.16865306138422</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -29130,7 +29130,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>-36.74562708385469,175.16871541863344</t>
+          <t>-36.74562733175462,175.16871184898793</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -29187,7 +29187,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>-36.74563401726578,175.16861558009964</t>
+          <t>-36.74563369190085,175.1686202652604</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -29244,7 +29244,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>-36.74563485391757,175.16860353254322</t>
+          <t>-36.745634923638505,175.16860252858015</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -29301,7 +29301,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>-36.74563429614984,175.16861156424756</t>
+          <t>-36.74563435037727,175.1686107833874</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -29358,7 +29358,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>-36.74563060092502,175.168664774285</t>
+          <t>-36.74563077910203,175.168662208602</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -29415,7 +29415,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>-36.74563914561236,175.16854173303577</t>
+          <t>-36.74563937801369,175.1685383864918</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -29525,7 +29525,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>-36.74563685258083,175.16857475226826</t>
+          <t>-36.74563699976895,175.16857263279056</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -29635,7 +29635,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>-36.74563906039852,175.1685429601019</t>
+          <t>-36.74563922307947,175.16854061752113</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -29684,7 +29684,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>-36.745650827536934,175.1683735133948</t>
+          <t>-36.74565059514021,175.16837685994003</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -29786,7 +29786,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>-36.745657489536626,175.1682775790886</t>
+          <t>-36.7456576522124,175.16827523650645</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -29827,7 +29827,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>-36.74563551239267,175.1685940506699</t>
+          <t>-36.745635403938,175.16859561239022</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -29884,7 +29884,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>-36.74564318163556,175.16848361471867</t>
+          <t>-36.74564322036886,175.16848305696126</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -29941,7 +29941,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>-36.74564143088808,175.16850882535235</t>
+          <t>-36.7456413301812,175.1685102755215</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
@@ -29990,7 +29990,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>-36.745637503306924,175.16856538194577</t>
+          <t>-36.74563755753407,175.16856460108554</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -30047,7 +30047,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>-36.74563458278054,175.16860743684396</t>
+          <t>-36.74563435037727,175.1686107833874</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -30104,7 +30104,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>-36.745632746792204,175.16863387453654</t>
+          <t>-36.74563301018329,175.1686300817875</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -30161,7 +30161,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>-36.74562871069606,175.16869199283423</t>
+          <t>-36.745628493784146,175.1686951162742</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -30206,7 +30206,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>-36.745638378687296,175.1685527766307</t>
+          <t>-36.74563852587501,175.16855065715288</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -30316,7 +30316,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>-36.745631693226635,175.16864904553245</t>
+          <t>-36.74563138335405,175.16865350758994</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -30373,7 +30373,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>-36.745634884904646,175.1686030863374</t>
+          <t>-36.74563497786588,175.16860174772003</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
@@ -30422,7 +30422,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>-36.74563117418996,175.16865651947876</t>
+          <t>-36.74563103474719,175.16865852740463</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -30479,7 +30479,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>-36.745640857633326,175.1685170801613</t>
+          <t>-36.74564088862008,175.16851663395542</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -30536,7 +30536,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>-36.745643894327706,175.16847335198244</t>
+          <t>-36.74564365418155,175.16847681007837</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -30593,7 +30593,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>-36.74563309539803,175.16862885472162</t>
+          <t>-36.745633327801805,175.16862550817828</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -30650,7 +30650,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>-36.745635969451406,175.16858746913417</t>
+          <t>-36.74563566732787,175.16859181964085</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -30707,7 +30707,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>-36.7456413766613,175.16850960621267</t>
+          <t>-36.74564136891462,175.16850971776412</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -30805,7 +30805,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>-36.745639982256726,175.16852968547738</t>
+          <t>-36.74564019916431,175.16852656203628</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -30838,7 +30838,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>-36.74561987921643,175.16881916144393</t>
+          <t>-36.7456200419028,175.1688168188646</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -30875,7 +30875,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>-36.74563991253641,175.1685306894406</t>
+          <t>-36.74564001324354,175.1685292392715</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -30920,7 +30920,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>-36.74563489265142,175.16860297478598</t>
+          <t>-36.74563497011911,175.16860185927146</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -30977,7 +30977,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>-36.74564393306096,175.168472794225</t>
+          <t>-36.74564360770163,175.16847747938726</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -31034,7 +31034,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>-36.745636372282554,175.16858166845853</t>
+          <t>-36.74563651172403,175.16857966053232</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -31116,7 +31116,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>-36.74563469123536,175.16860587512366</t>
+          <t>-36.745634791943395,175.16860442495482</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -31173,7 +31173,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>-36.745631685479836,175.16864915708388</t>
+          <t>-36.7456316699862,175.16864938018676</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -31230,7 +31230,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>-36.74563947097419,175.1685370478742</t>
+          <t>-36.745639230826185,175.16854050596964</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -31275,7 +31275,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>-36.745634675741826,175.16860609822655</t>
+          <t>-36.745634900398194,175.16860286323453</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -31332,7 +31332,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>-36.74565034725027,175.16838042958818</t>
+          <t>-36.74565005288081,175.16838466854537</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -31389,7 +31389,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>-36.74563884349048,175.16854608354288</t>
+          <t>-36.74563902166494,175.16854351785923</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -31446,7 +31446,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>-36.74564205062231,175.16849990123438</t>
+          <t>-36.745642027382274,175.1685002358888</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -31487,7 +31487,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>-36.74564289500913,175.1684877421234</t>
+          <t>-36.74564270134254,175.16849053091036</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -31540,7 +31540,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>-36.74564189568881,175.1685021322639</t>
+          <t>-36.74564210484903,175.16849912037407</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -31585,7 +31585,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>-36.74563978858915,175.16853247426408</t>
+          <t>-36.74563961041494,175.1685350399478</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -31642,7 +31642,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>-36.74564453729923,175.1684640932093</t>
+          <t>-36.74564473871184,175.16846119287072</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -31907,7 +31907,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>-36.745627719098046,175.16870627141674</t>
+          <t>-36.745627966997716,175.16870270177114</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -31964,7 +31964,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>-36.74563126715178,175.16865518086152</t>
+          <t>-36.74563099601308,175.1686590851618</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -32013,7 +32013,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>-36.745634102480366,175.16861435303372</t>
+          <t>-36.74563422642885,175.16861256821056</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -32070,7 +32070,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>-36.74563177069475,175.16864793001804</t>
+          <t>-36.74563176294795,175.1686480415695</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -32127,7 +32127,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>-36.7456350708271,175.16860040910262</t>
+          <t>-36.745634962372336,175.16860197082292</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -32176,7 +32176,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>-36.74563981182927,175.16853213960968</t>
+          <t>-36.74563955618798,175.1685358208081</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -32233,7 +32233,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>-36.74563218127564,175.16864201779177</t>
+          <t>-36.74563239818617,175.16863889435143</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -32258,7 +32258,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>-36.745646311277135,175.16843854791867</t>
+          <t>-36.745645978172526,175.16844334463275</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -32315,7 +32315,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>-36.74563796036409,175.16855880040964</t>
+          <t>-36.74563768922852,175.16856270471072</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -32372,7 +32372,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>-36.74563774345565,175.16856192385052</t>
+          <t>-36.745637658241606,175.16856315091655</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -32429,7 +32429,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>-36.74564033085819,175.16852466566127</t>
+          <t>-36.745640307618096,175.16852500031567</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -32486,7 +32486,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>-36.74564813947575,175.16841222176606</t>
+          <t>-36.745647938064316,175.16841512210496</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -32543,7 +32543,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>-36.74563283200699,175.16863264747067</t>
+          <t>-36.74563308765125,175.16862896627305</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -32653,7 +32653,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>-36.74564207386233,175.16849956657995</t>
+          <t>-36.745641802728706,175.1685034708816</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -32710,7 +32710,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>-36.74563927730645,175.16853983666087</t>
+          <t>-36.745639230826185,175.16854050596964</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -32767,7 +32767,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>-36.74564460701899,175.16846308924596</t>
+          <t>-36.745644777445015,175.16846063511326</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -32824,7 +32824,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>-36.7456367053927,175.16857687174593</t>
+          <t>-36.745636651165476,175.16857765260613</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -32881,7 +32881,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>-36.74563713146353,175.16857073641577</t>
+          <t>-36.74563725541135,175.16856895159245</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -32938,7 +32938,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>-36.745636542711026,175.1685792143265</t>
+          <t>-36.74563679835363,175.16857553312846</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -32995,7 +32995,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>-36.74563995126991,175.16853013168324</t>
+          <t>-36.745640075217125,175.16852834685974</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -33101,7 +33101,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>-36.74563241367977,175.16863867124854</t>
+          <t>-36.74563242142658,175.1686385596971</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -33146,7 +33146,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>-36.74563338977613,175.16862461576673</t>
+          <t>-36.74563325808069,175.1686265121413</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -33195,7 +33195,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>-36.7456355046459,175.16859416222135</t>
+          <t>-36.74563552013942,175.16859393911844</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -33240,7 +33240,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>-36.74562608450701,175.16872980876667</t>
+          <t>-36.745626262685406,175.16872724308402</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -33285,7 +33285,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>-36.745640106203936,175.16852790065388</t>
+          <t>-36.745640307618096,175.16852500031567</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -33342,7 +33342,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>-36.745635737048715,175.16859081567776</t>
+          <t>-36.74563584550331,175.1685892539574</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -33387,7 +33387,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>-36.74563707723635,175.16857151727598</t>
+          <t>-36.7456368448341,175.1685748638197</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -33444,7 +33444,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>-36.745636953288496,175.1685733020993</t>
+          <t>-36.745636914554794,175.1685738598566</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -33481,7 +33481,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>-36.745635938464396,175.16858791533997</t>
+          <t>-36.74563591522412,175.16858824999434</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -33636,7 +33636,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>-36.74563977309574,175.168532697367</t>
+          <t>-36.74564003648362,175.1685289046171</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -33665,7 +33665,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>-36.745638216006085,175.1685551192114</t>
+          <t>-36.74563797585756,175.1685585773067</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -33714,7 +33714,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>-36.7456404780454,175.16852254618334</t>
+          <t>-36.74564065621935,175.16851998049952</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -33771,7 +33771,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>-36.745642995715734,175.16848629195417</t>
+          <t>-36.74564292599578,175.1684872959175</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -33857,7 +33857,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>-36.74563737161241,175.16856727832058</t>
+          <t>-36.74563744133305,175.16856627435743</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -33943,7 +33943,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>-36.745646288037285,175.1684388825731</t>
+          <t>-36.74564607887859,175.16844189446337</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -34045,7 +34045,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>-36.745627742338655,175.16870593676248</t>
+          <t>-36.74562748669203,175.16870961795945</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -34090,7 +34090,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>-36.745632312971324,175.16864012141727</t>
+          <t>-36.745632072820335,175.16864357951192</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -34131,7 +34131,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>-36.74563076360837,175.16866243170486</t>
+          <t>-36.74563101150672,175.16865886205892</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -34188,7 +34188,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>-36.7456251006514,175.1687439757966</t>
+          <t>-36.74562480626909,175.1687482147503</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -34229,7 +34229,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>-36.745636372282554,175.16858166845853</t>
+          <t>-36.745636542711026,175.1685792143265</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -34331,7 +34331,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>-36.74563423417562,175.1686124566591</t>
+          <t>-36.745634071493235,175.16861479923952</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -34388,7 +34388,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>-36.745632405932966,175.16863878279997</t>
+          <t>-36.74563246790739,175.16863789038845</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -34445,7 +34445,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>-36.745635403938,175.16859561239022</t>
+          <t>-36.745635148294774,175.1685992935881</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -34502,7 +34502,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>-36.745632746792204,175.16863387453654</t>
+          <t>-36.745632483401,175.16863766728557</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -34559,7 +34559,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>-36.745637596267734,175.16856404332825</t>
+          <t>-36.745637782189306,175.16856136609323</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -34616,7 +34616,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>-36.74563241367977,175.16863867124854</t>
+          <t>-36.745632080567155,175.16864346796046</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -34731,7 +34731,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>-36.74563707723635,175.16857151727598</t>
+          <t>-36.74563715470376,175.1685704017614</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -34776,7 +34776,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>-36.745634784196625,175.16860453650625</t>
+          <t>-36.745634753209565,175.16860498271205</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -34833,7 +34833,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>-36.74563720893094,175.1685696209012</t>
+          <t>-36.74563696878198,175.1685730789964</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -34915,7 +34915,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>-36.745644397859685,175.16846610113603</t>
+          <t>-36.74564456828579,175.16846364700336</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -34997,7 +34997,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>-36.745640447058626,175.16852299238926</t>
+          <t>-36.74564035409827,175.16852433100686</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -35099,7 +35099,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>-36.745628269125284,175.16869835126556</t>
+          <t>-36.745628517024706,175.1686947816199</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -35156,7 +35156,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>-36.74563767373507,175.16856292781367</t>
+          <t>-36.745637325132,175.16856794762933</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -35193,7 +35193,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>-36.74563039950747,175.16866767462227</t>
+          <t>-36.74563007414053,175.16867235978248</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -35250,7 +35250,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>-36.745616919865846,175.1688617740753</t>
+          <t>-36.74561672619055,175.1688645628599</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -35307,7 +35307,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>-36.74563109672176,175.1686576349931</t>
+          <t>-36.74563106573448,175.16865808119886</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -35364,7 +35364,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>-36.74563106573448,175.16865808119886</t>
+          <t>-36.74563103474719,175.16865852740463</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -35421,7 +35421,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>-36.7456295396087,175.16868005683125</t>
+          <t>-36.74562974102654,175.16867715649406</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -35519,7 +35519,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>-36.7456290902917,175.1686865268142</t>
+          <t>-36.74562885788623,175.1686898733571</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -35556,7 +35556,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>-36.74562997343166,175.16867380995112</t>
+          <t>-36.745629795254416,175.16867637563405</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -35613,7 +35613,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>-36.74563374612835,175.16861948440027</t>
+          <t>-36.745633846836554,175.16861803423146</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -35695,7 +35695,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>-36.74563060867183,175.16866466273356</t>
+          <t>-36.74563034527967,175.16866845548233</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -35752,7 +35752,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>-36.745637898390264,175.1685596928213</t>
+          <t>-36.74563755753407,175.16856460108554</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -35797,7 +35797,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>-36.74563316511918,175.1686278507586</t>
+          <t>-36.74563284750057,175.16863242436781</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -35854,7 +35854,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>-36.74563651172403,175.16857966053232</t>
+          <t>-36.745636558204524,175.1685789912236</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -35895,7 +35895,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>-36.74563672088618,175.168576648643</t>
+          <t>-36.745636689899214,175.16857709484884</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -35932,7 +35932,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>-36.74563631030855,175.16858256087016</t>
+          <t>-36.745636302561785,175.16858267242162</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -35989,7 +35989,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>-36.745649928935755,175.1683864533694</t>
+          <t>-36.74565016133274,175.1683831068243</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -36018,7 +36018,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>-36.74565020006556,175.16838254906676</t>
+          <t>-36.74565046344869,175.1683787563156</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -36067,7 +36067,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>-36.74563638777605,175.1685814453556</t>
+          <t>-36.74563618636052,175.16858434569343</t>
         </is>
       </c>
       <c r="C308" t="inlineStr"/>
@@ -36112,7 +36112,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>-36.74564478519168,175.1684605235618</t>
+          <t>-36.74564487040467,175.16845929649546</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -36169,7 +36169,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>-36.74564419644694,175.1684690014746</t>
+          <t>-36.74564405700731,175.1684710094013</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -36198,7 +36198,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>-36.745631995352255,175.1686446950263</t>
+          <t>-36.745631731960714,175.16864848777524</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -36288,7 +36288,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>-36.745622644878516,175.16877933759372</t>
+          <t>-36.74562266037238,175.16877911449092</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -36321,7 +36321,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>-36.74563561310055,175.168592600501</t>
+          <t>-36.745635264496244,175.16859762031635</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -36411,7 +36411,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>-36.74563656595126,175.16857887967214</t>
+          <t>-36.74563667440571,175.16857731795176</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -36460,7 +36460,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>-36.74563341301649,175.16862428111241</t>
+          <t>-36.745633242587104,175.16862673524417</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -36505,7 +36505,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>-36.74562909803856,175.16868641526278</t>
+          <t>-36.74562882689884,175.16869031956278</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -36562,7 +36562,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>-36.74563725541135,175.16856895159245</t>
+          <t>-36.745637387105894,175.16856705521766</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -36619,7 +36619,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>-36.74563502434649,175.1686010784113</t>
+          <t>-36.7456349468788,175.1686021939258</t>
         </is>
       </c>
       <c r="C320" t="inlineStr"/>
@@ -36652,7 +36652,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>-36.74563503209325,175.16860096685988</t>
+          <t>-36.745635117307685,175.1685997397939</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -36701,7 +36701,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>-36.74563435037727,175.1686107833874</t>
+          <t>-36.745634272909506,175.16861189890187</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -36799,7 +36799,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>-36.74562855575898,175.16869422386276</t>
+          <t>-36.745628687455486,175.1686923274885</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -36840,7 +36840,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>-36.745639130118924,175.1685419561387</t>
+          <t>-36.74563931604001,175.16853927890355</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -36881,7 +36881,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>-36.74563746457326,175.16856593970306</t>
+          <t>-36.745637665988326,175.16856303936513</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -36938,7 +36938,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>-36.745637588521014,175.16856415487973</t>
+          <t>-36.74563775120238,175.16856181229906</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -36995,7 +36995,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>-36.745642949235766,175.16848696126306</t>
+          <t>-36.745642933742445,175.168487184366</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -37130,7 +37130,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>-36.74564394855424,175.16847257112207</t>
+          <t>-36.7456439717942,175.1684722364676</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -37187,7 +37187,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>-36.745639959016614,175.16853002013178</t>
+          <t>-36.74563982732268,175.16853191650674</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -37273,7 +37273,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>-36.7456492239976,175.16839660455616</t>
+          <t>-36.745649061319476,175.1683989471377</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -37363,7 +37363,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>-36.74564715565773,175.16842638880598</t>
+          <t>-36.74564735706942,175.16842348846714</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -37420,7 +37420,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>-36.74564370840811,175.168476029218</t>
+          <t>-36.745643925314305,175.1684729057765</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -37514,7 +37514,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>-36.74564127595442,175.16851105638182</t>
+          <t>-36.74564132243452,175.16851038707298</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -37571,7 +37571,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>-36.745630531203574,175.16866577824788</t>
+          <t>-36.7456303065455,175.16866901323948</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -37624,7 +37624,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>-36.74563626382804,175.16858323017888</t>
+          <t>-36.74563611663975,175.16858534965655</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -37665,7 +37665,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>-36.74563660468499,175.16857832191485</t>
+          <t>-36.745636596938255,175.1685784334663</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -37710,7 +37710,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>-36.74563289398136,175.16863175505912</t>
+          <t>-36.74563307990444,175.1686290778245</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -37812,7 +37812,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>-36.745646117611685,175.1684413367059</t>
+          <t>-36.74564624155759,175.16843955188207</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -37869,7 +37869,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>-36.745636070159215,175.16858601896527</t>
+          <t>-36.745635729301945,175.16859092722922</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -37922,7 +37922,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>-36.74563851038156,175.16855088025582</t>
+          <t>-36.74563871954301,175.16854786836632</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -37971,7 +37971,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>-36.74563686032759,175.1685746407168</t>
+          <t>-36.74563703075591,175.16857218658475</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -38028,7 +38028,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>-36.74563603917221,175.16858646517107</t>
+          <t>-36.745635682821394,175.16859159653794</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -38081,7 +38081,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>-36.74563462926118,175.16860676753524</t>
+          <t>-36.74563437361761,175.16861044873306</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -38138,7 +38138,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>-36.745638432914355,175.16855199577043</t>
+          <t>-36.74563857235533,175.1685499878441</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -38195,7 +38195,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>-36.74563369964764,175.16862015370893</t>
+          <t>-36.745633668660496,175.16862059991473</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -38301,7 +38301,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>-36.745634861664335,175.16860342099176</t>
+          <t>-36.745634784196625,175.16860453650625</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -38407,7 +38407,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>-36.74563495462557,175.16860208237438</t>
+          <t>-36.74563477644985,175.16860464805774</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -38460,7 +38460,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>-36.74563829347334,175.16855400369678</t>
+          <t>-36.7456381307921,175.16855634627748</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -38501,7 +38501,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>-36.745642445702536,175.1684942121091</t>
+          <t>-36.7456422752758,175.16849666624157</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -38554,7 +38554,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>-36.74563710047658,175.1685711826216</t>
+          <t>-36.7456368448341,175.1685748638197</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -38611,7 +38611,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>-36.745638866730616,175.1685457488885</t>
+          <t>-36.745638758276584,175.168547310609</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -38668,7 +38668,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>-36.74564201188894,175.16850045899176</t>
+          <t>-36.74564218231575,175.16849800485932</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -38725,7 +38725,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>-36.74563892870435,175.1685448564768</t>
+          <t>-36.74563891321093,175.1685450795797</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -38782,7 +38782,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>-36.74563149180948,175.16865194586984</t>
+          <t>-36.74563170872026,175.16864882242956</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -38839,7 +38839,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>-36.745635737048715,175.16859081567776</t>
+          <t>-36.74563543492504,175.1685951661844</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -38892,7 +38892,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>-36.74563991253641,175.1685306894406</t>
+          <t>-36.74564009845723,175.16852801220534</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -38949,7 +38949,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>-36.74562173848651,175.16879238910803</t>
+          <t>-36.74562163777621,175.16879383927628</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -38982,7 +38982,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>-36.74563482293049,175.16860397874902</t>
+          <t>-36.74563462926118,175.16860676753524</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -39084,7 +39084,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>-36.7456208863218,175.1688046597622</t>
+          <t>-36.745620661660006,175.16880789475277</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -39125,7 +39125,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>-36.74563698427547,175.16857285589347</t>
+          <t>-36.74563715470376,175.1685704017614</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -39182,7 +39182,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>-36.74563101150672,175.16865886205892</t>
+          <t>-36.74563117418996,175.16865651947876</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -39239,7 +39239,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>-36.74563120517724,175.168656073273</t>
+          <t>-36.74563112770903,175.16865718878736</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -39296,7 +39296,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>-36.74564360770163,175.16847747938726</t>
+          <t>-36.74564361544827,175.16847736783575</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -39394,7 +39394,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>-36.74562479077528,175.16874843785314</t>
+          <t>-36.74562447315207,175.1687530114611</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -39447,7 +39447,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>-36.74563354471191,175.16862238473786</t>
+          <t>-36.74563333554859,175.16862539662685</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -39504,7 +39504,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>-36.74563116644314,175.1686566310302</t>
+          <t>-36.74563133687315,175.16865417689857</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -39561,7 +39561,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>-36.74562998117849,175.16867369839966</t>
+          <t>-36.74562962482395,175.16867882976553</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -39618,7 +39618,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>-36.745635442671805,175.16859505463296</t>
+          <t>-36.745635551126476,175.16859349291263</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -39675,7 +39675,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>-36.74563727090483,175.16856872848953</t>
+          <t>-36.745637425839575,175.16856649746035</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -39732,7 +39732,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>-36.74563892870435,175.1685448564768</t>
+          <t>-36.74563915335907,175.1685416214843</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -39789,7 +39789,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>-36.74563481518371,175.16860409030048</t>
+          <t>-36.74563456728699,175.16860765994684</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -39846,7 +39846,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>-36.74564203512896,175.16850012433733</t>
+          <t>-36.74564199639559,175.16850068209473</t>
         </is>
       </c>
       <c r="C383" t="inlineStr"/>
@@ -39871,7 +39871,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>-36.74564310416898,175.16848473023344</t>
+          <t>-36.74564303444904,175.1684857341968</t>
         </is>
       </c>
       <c r="C384" t="inlineStr"/>
@@ -39916,7 +39916,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>-36.745651005707685,175.16837094771014</t>
+          <t>-36.74565088950938,175.16837262098275</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -39953,7 +39953,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>-36.74564384010117,175.16847413284282</t>
+          <t>-36.745644018274085,175.1684715671587</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -40010,7 +40010,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>-36.74563667440571,175.16857731795176</t>
+          <t>-36.74563648073705,175.16858010673815</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -40067,7 +40067,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>-36.74565797756381,175.16827055134212</t>
+          <t>-36.74565818671821,175.1682675394507</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -40112,7 +40112,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>-36.745635969451406,175.16858746913417</t>
+          <t>-36.74563589198385,175.16858858464872</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -40169,7 +40169,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>-36.745632498894594,175.16863744418268</t>
+          <t>-36.74563264608382,175.1686353247053</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -40226,7 +40226,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>-36.745634257415944,175.1686121220048</t>
+          <t>-36.74563406374646,175.16861491079095</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -40283,7 +40283,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>-36.74562546475565,175.16873873288003</t>
+          <t>-36.74562566617492,175.1687358325432</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -40340,7 +40340,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>-36.74563106573448,175.16865808119886</t>
+          <t>-36.74563091854485,175.16866020067616</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -40381,7 +40381,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>-36.74563451305957,175.168608440807</t>
+          <t>-36.74563440460473,175.16861000252726</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -40438,7 +40438,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>-36.74563151504992,175.16865161121552</t>
+          <t>-36.745631677733016,175.1686492686353</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -40495,7 +40495,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>-36.74563653496427,175.16857932587794</t>
+          <t>-36.74563667440571,175.16857731795176</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -40552,7 +40552,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>-36.74563315737238,175.16862796231007</t>
+          <t>-36.745632963702526,175.16863075109615</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -40609,7 +40609,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>-36.74563906039852,175.1685429601019</t>
+          <t>-36.74563903715837,175.1685432947563</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -40666,7 +40666,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>-36.74563802233792,175.16855790799792</t>
+          <t>-36.7456378828968,175.16855991592422</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -40723,7 +40723,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>-36.74564115975414,175.16851272965388</t>
+          <t>-36.74564136891462,175.16850971776412</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -40780,7 +40780,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>-36.74563834770039,175.16855322283652</t>
+          <t>-36.74563815403228,175.16855601162308</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -40837,7 +40837,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>-36.74564353023509,175.16847859490204</t>
+          <t>-36.74564361544827,175.16847736783575</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -40894,7 +40894,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>-36.74563979633585,175.1685323627126</t>
+          <t>-36.74563967238857,175.1685341475361</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -40951,7 +40951,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>-36.74563456728699,175.16860765994684</t>
+          <t>-36.74563438136439,175.1686103371816</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -41008,7 +41008,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>-36.745635465912095,175.1685947199786</t>
+          <t>-36.74563531097684,175.16859695100766</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
